--- a/output/fit_clients/fit_round_46.xlsx
+++ b/output/fit_clients/fit_round_46.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>10126501734.18851</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.00460383556749994</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.341440722347415</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9289086651407811</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.341440722347415</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>6429199310.021175</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.005093482379735898</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>11</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.8459552573476312</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.861205258219651</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.061717163036668</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.861205258219651</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>5183943429.000095</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.003760409449415635</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.529565030658346</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9422608211444264</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-3.529565030658346</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>4065246561.315455</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.005341511972356459</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>11</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.007620955730973</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.8247418990702593</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-3.007620955730973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>5548303069.120999</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002051403561689267</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>15</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.8334417310389491</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.584093322825063</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.006028807361216</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.584093322825063</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>7209584189.588154</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001144856533490966</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>7</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.541379834613598</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9369082900477597</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-3.541379834613598</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>7203087914.99318</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.003374745902755586</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.752529225259277</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.943121393719519</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.752529225259277</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>4800883852.769783</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.004703752723717656</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>6</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.9325880320508924</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.711988303663479</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.122394113252768</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-3.711988303663479</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3545621726.135855</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.004878243536108452</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.143105935720832</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9351749181328907</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-3.143105935720832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>4231884638.016633</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001163782696430598</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>11</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.831993332522547</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7692113249106274</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.831993332522547</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>6599931128.085006</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.002144912833787582</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>6</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.93620764360692</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9929943352736431</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-3.93620764360692</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>5148856005.13394</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003749215296403359</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>11</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.855219671217095</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.007042764096905</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.855219671217095</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>7024813873.265665</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002246310029440941</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>8</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.344376181605485</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.8806767424526554</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-3.344376181605485</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>5239902011.748585</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.003599319521039042</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.279423452497213</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.947137564414855</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.279423452497213</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>7973113064.842454</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.003509117748052697</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>9</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.241205165758611</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.88658839931143</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.241205165758611</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>6375414764.093206</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002201273235842853</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>7</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.891018019385345</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950106</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.491625829676137</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.136957739497162</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-3.491625829676137</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>4663929464.699396</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.0009892867321211066</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>5.31241225434531</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.966736123452875</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-5.31241225434531</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>4718877283.714082</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.001575387395253205</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>11</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.892973219639932</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.8779088791064726</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.892973219639932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>5052858881.402129</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001390586125652907</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.781131062820529</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.82843230200162</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3.781131062820529</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>6467724375.153087</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.005423807310650793</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>11</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3.052694384066333</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8332351622603251</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-3.052694384066333</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>5215425231.283355</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.005103043645502028</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>7</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.6289111114715048</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>3.676192937221711</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.8324625749419517</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-3.676192937221711</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>6071115207.754534</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001462877668444291</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>13</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.605520894802411</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.83731363913123</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.605520894802411</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>6943435481.601969</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.004851341671751989</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>8</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.460470274460067</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.9770514123321461</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-3.460470274460067</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>6703665178.438407</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.002922884909000007</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>7</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.632734420897871</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9261104263278293</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.632734420897871</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>4809619196.225315</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001052326405767939</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>13</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.501859750005492</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.7762233450884976</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.501859750005492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>8291025824.239813</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003832554774811737</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>10</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>3.042874710901415</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9103148084160512</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-3.042874710901415</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>8005847789.348548</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.004341744683930139</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>10</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.9804047126179741</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.045626348887948</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.144470125581192</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-3.045626348887948</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>5756887046.039057</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001080393849144389</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>8</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.458736127440842</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9656610056911418</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-3.458736127440842</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>6456007765.794501</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.002663658601959265</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>9</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.042348646936729</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8808976550599121</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-3.042348646936729</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>5800268035.441896</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.003153163773511385</v>
       </c>
       <c r="G31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>10</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.092115883436691</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9481989391190089</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-3.092115883436691</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>5012680630.181908</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001386727054680532</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>8</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590732</v>
-      </c>
-      <c r="L32" t="n">
-        <v>3.640595844437308</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9295723007965954</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-3.640595844437308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>5847500109.890277</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.0026419305031309</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>8</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.44759143350605</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8264714529518519</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.44759143350605</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>5379303806.77106</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004466485007027822</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>5</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="L34" t="n">
-        <v>4.340430987148872</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.7947301712200769</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-4.340430987148872</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>5656080772.03594</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002221688558557016</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>7</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>3.566317428356786</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9336820429343632</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-3.566317428356786</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>7630285098.659772</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.002469092407050355</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>9</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.168808457193884</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.9945938236714262</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.168808457193884</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>4351072070.247972</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.004979641332731278</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>10</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>3.192172559109607</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.9947894390665692</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-3.192172559109607</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>4861987514.459598</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.003976304805319928</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>11</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.805044232067391</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.8686948268801308</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.805044232067391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>4950141775.039028</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.003152077552436992</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>8</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542555</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.548006706432491</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0.8480949136253153</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.548006706432491</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>6428051479.696951</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.004664701680549739</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>9</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.5312322887875841</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3.362512620848867</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.8712304070250201</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-3.362512620848867</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>5425315296.054242</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001279163068800495</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>8</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.3744970002401</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9076736296676625</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.3744970002401</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>4579245925.352643</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.00363037750264126</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>9</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>3.069986452388221</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9637774678129999</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-3.069986452388221</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>5914449205.353033</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.00337036488492074</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>8</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>3.473156589833265</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9153977570100559</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-3.473156589833265</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>6872282963.499646</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.00197446464336737</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>13</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.4007436314639592</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900504</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.790375025546121</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.6338477451992726</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.790375025546121</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>4890094508.059694</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001143359329604804</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>10</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.3942478720834672</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.301633401736105</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.6742616182925536</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.301633401736105</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>7265299647.262818</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.00549460397314812</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>10</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.043945794831433</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8022469234071269</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-3.043945794831433</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>6318152648.126074</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.003189494102017689</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>8</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>3.270666730252657</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.8942770663197983</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-3.270666730252657</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>5403939887.294886</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.002614677674674855</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>5</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>4.241356166414377</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.953522643415205</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-4.241356166414377</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>3902653634.934083</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.003811903350973991</v>
       </c>
       <c r="G49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>9</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.304321189782138</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8763184522804541</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-3.304321189782138</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>8023656467.104943</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003585193329654468</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5.433112464591689</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.029223877527496</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-5.433112464591689</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>3778258039.45087</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.004446701474175387</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>12</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.5148289218799176</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.839537111260762</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.7987816615837299</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.839537111260762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>5383365508.756684</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.002220024855462347</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>9</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3.104830598498393</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8351801315179549</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-3.104830598498393</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>5000840850.876806</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002206895855952915</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
         <v>9</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3.187253117076641</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.9045582266084197</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-3.187253117076641</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>5558221349.923555</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.003601666698701154</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
         <v>11</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.806885432296936</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8235214252594205</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.806885432296936</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>7163061949.478478</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.004374104087074358</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>12</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269525</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.762853522622082</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.8642761175449026</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.762853522622082</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>5184825866.175499</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002879613932528993</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>7</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3.608105339237174</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9162835596946617</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-3.608105339237174</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>6545096152.628276</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.003983639407007081</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>8</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>3.311001029629841</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8264714529518519</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-3.311001029629841</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>4931918192.624325</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002681085115573254</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>13</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.522109834757916</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.7762233450884976</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.522109834757916</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>5170140637.592871</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.004201680589269801</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>10</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.981149355958694</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8649893418956897</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.981149355958694</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>4787998322.895871</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.00412732043847168</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>8</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3.231584260195009</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8373529856223946</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-3.231584260195009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>4784447373.690239</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.003649386263127538</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>12</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.5121687302655572</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.443628467468622</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.7979204484374824</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-3.443628467468622</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>6</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>6593007565.735031</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.002653697824650376</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>10</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.600097206614966</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8473674694502281</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.600097206614966</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>7524323867.6994</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.004559390702048984</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
         <v>12</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.3411907089038714</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.733978414150442</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.5457472651185874</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.733978414150442</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>3897425132.184407</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.004480728567432429</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>5</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>4.152789482845192</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9158587520904401</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-4.152789482845192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>6687516194.043313</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.004318232383979651</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>8</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>3.804099805791752</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.004462215466277</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-3.804099805791752</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>4202367367.987201</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.002637781790822214</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>8</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.38980746524847</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.9021159054636589</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.38980746524847</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>5365876377.82343</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.004798166799581356</v>
       </c>
       <c r="G67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>5</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>4.281410222346601</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.8992342967603065</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-4.281410222346601</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>7523326376.671333</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002992803227362825</v>
       </c>
       <c r="G68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
         <v>10</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676648</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.885579195891045</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7203312213365176</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.885579195891045</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>6</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>5278030197.834066</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001188438919371181</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>6</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.916816186993184</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9735585075854701</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.916816186993184</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>5925647864.011924</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.002727994513525054</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>5</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>5.010024172652105</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9070302949819126</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-5.010024172652105</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>3555595278.068368</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003632763283578432</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>7</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>3.525501481404397</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.7977453713278292</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-3.525501481404397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>8289921127.307699</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.002324655011671655</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>9</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.6104262074759187</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>3.169111046718038</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.015832253689679</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-3.169111046718038</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>5493303543.092434</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001259717980338138</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>8</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3.334889308166731</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9371159469101186</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-3.334889308166731</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>4622156578.009587</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.005114278712508003</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>8</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="L74" t="n">
-        <v>3.289663603248394</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8703370408701606</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-3.289663603248394</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>6503594736.847105</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003963899922350049</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>12</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.8990925617450849</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.854875933771488</v>
-      </c>
-      <c r="M75" t="n">
-        <v>1.036176792853448</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.854875933771488</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>6770331187.769266</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002564654053452155</v>
       </c>
       <c r="G76" t="b">
         <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>11</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.976091411018216</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.8982950072146507</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.976091411018216</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>6389583697.106256</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.005374927558934639</v>
       </c>
       <c r="G77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>4</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>4.706260892656825</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.000676141249088</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-4.706260892656825</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>7012587403.727939</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.004770706996436024</v>
       </c>
       <c r="G78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>12</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.808428456942018</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.872384572825232</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.808428456942018</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>8327718894.957353</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002569415880291877</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>6</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>3.767096764990411</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.953726682807266</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-3.767096764990411</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>5592524115.284955</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.003283612605917943</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>11</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="L80" t="n">
-        <v>3.184088239009341</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9441523887893331</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-3.184088239009341</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>4779643866.264676</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.003793761566910702</v>
       </c>
       <c r="G81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>4</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>4.592825548562711</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.9844623629848932</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-4.592825548562711</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>6137281087.468954</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.00386269419513635</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>8</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>3.432619486537146</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.9032301861160462</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-3.432619486537146</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>10098286258.9</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.003147021472112509</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>15</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.428610840084397</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.7728298666487392</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.428610840084397</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>5572541241.809872</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.004653071816835045</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
         <v>13</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.3903509489798901</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.643473164358829</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.633608056663492</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.643473164358829</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>4099385837.023532</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003433023744671473</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>13</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.3465749976499257</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.610818482314448</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.5358455510162116</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.610818482314448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>6838504945.842168</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.001774540623879723</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>11</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307497</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3.150492876907075</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9568509183279953</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-3.150492876907075</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>3603412786.871318</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001028622740887312</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>14</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.56483628571456</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9340634737685624</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.56483628571456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>9125704214.783428</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.003766353318114271</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
         <v>11</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.707568131637062</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.820258788722704</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.868708705292747</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.820258788722704</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>5409657445.652702</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.003977505803731639</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>10</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.1243483029801</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9147238377261158</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.1243483029801</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>7215145257.129766</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.00266536947932545</v>
       </c>
       <c r="G90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>10</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.948268776479613</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9125219859614193</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.948268776479613</v>
+        <v>8</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>6252503817.715481</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.004126862042162815</v>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>5</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.8434028583341401</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719719</v>
-      </c>
-      <c r="L91" t="n">
-        <v>4.060605978409302</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.975720026538474</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-4.060605978409302</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4065742107.267702</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003981497201825507</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>8</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.427114755791307</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.029191866377295</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.427114755791307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>5302023785.138719</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001329179971016691</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>11</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.2005867751590511</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.904144520835376</v>
-      </c>
-      <c r="M93" t="n">
-        <v>-0.4890096469218257</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.904144520835376</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>5595989303.467862</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001485704810577072</v>
       </c>
       <c r="G94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>4</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="L94" t="n">
-        <v>4.719399982936051</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.030389541040899</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-4.719399982936051</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>5364083099.013995</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002296306229652541</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>8</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.287515862374827</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9032301861160462</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.287515862374827</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>8907311665.17074</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.003275622901794277</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>13</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.721058878725381</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.888598485248787</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.721058878725381</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>6970325114.448569</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.004269966142785827</v>
       </c>
       <c r="G97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>8</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>3.494635532102732</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.885233400623735</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-3.494635532102732</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>8628317321.931463</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.00421746064342664</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>7</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.389088991081126</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.868956701163462</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.389088991081126</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>2438027817.39866</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.005570027022011719</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>12</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.820397145285011</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.8642761175449026</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.820397145285011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>6051773852.586071</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002746885068614785</v>
       </c>
       <c r="G100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>8</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.6302073361559337</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.285317477080234</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8166772708840759</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.285317477080234</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>7889186831.754038</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001544170360388335</v>
       </c>
       <c r="G101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>11</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>3.171553744624347</v>
-      </c>
-      <c r="M101" t="n">
-        <v>1.145518539148132</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-3.171553744624347</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_46.xlsx
+++ b/output/fit_clients/fit_round_46.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>10126501734.18851</v>
+        <v>1879699798.267701</v>
       </c>
       <c r="F2" t="n">
-        <v>0.00460383556749994</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>11</v>
+        <v>0.08423139521952165</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03456070558135767</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>939849878.4256968</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>6429199310.021175</v>
+        <v>2078794546.491367</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005093482379735898</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>12</v>
+        <v>0.1287562455661767</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04326910991030044</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1039397325.362672</v>
       </c>
     </row>
     <row r="4">
@@ -539,19 +561,25 @@
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5183943429.000095</v>
+        <v>4152833345.811261</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003760409449415635</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11</v>
+        <v>0.1641437612553077</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03793537446898806</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>17</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2076416697.764956</v>
       </c>
     </row>
     <row r="5">
@@ -567,19 +595,25 @@
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4065246561.315455</v>
+        <v>2941027806.158339</v>
       </c>
       <c r="F5" t="n">
-        <v>0.005341511972356459</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.1051463874160215</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04186555603737186</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>17</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1470513976.632023</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>5548303069.120999</v>
+        <v>2316588151.539921</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002051403561689267</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
+        <v>0.0911970447990184</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.03513041327446711</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1158294070.955731</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>7209584189.588154</v>
+        <v>2939368892.269649</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001144856533490966</v>
-      </c>
-      <c r="G7" t="b">
+        <v>0.08891715404177797</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03385221355715368</v>
+      </c>
+      <c r="H7" t="b">
         <v>1</v>
       </c>
-      <c r="H7" t="n">
-        <v>13</v>
+      <c r="I7" t="n">
+        <v>14</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1469684416.704109</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>7203087914.99318</v>
+        <v>3425290342.679644</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003374745902755586</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>13</v>
+        <v>0.1713235920084357</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02452948264616259</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1712645272.189473</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>4800883852.769783</v>
+        <v>2250868466.75323</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004703752723717656</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>14</v>
+        <v>0.1230816804180685</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02702406139171644</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1125434224.994844</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3545621726.135855</v>
+        <v>3632652467.267339</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004878243536108452</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.2116422195613301</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.03355838287826873</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>19</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1816326226.939401</v>
       </c>
     </row>
     <row r="11">
@@ -735,19 +799,25 @@
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4231884638.016633</v>
+        <v>4165065295.636014</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001163782696430598</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.140452706282693</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04469353148917206</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>19</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2082532671.928541</v>
       </c>
     </row>
     <row r="12">
@@ -763,19 +833,25 @@
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>6599931128.085006</v>
+        <v>2547723640.604408</v>
       </c>
       <c r="F12" t="n">
-        <v>0.002144912833787582</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>13</v>
+        <v>0.1498357387906284</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.03872004951433188</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>16</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1273861796.756616</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>510</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3327597287.005619</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.09114182414903485</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02937131555310885</v>
+      </c>
+      <c r="H13" t="b">
         <v>1</v>
       </c>
-      <c r="D13" t="n">
-        <v>480</v>
-      </c>
-      <c r="E13" t="n">
-        <v>5148856005.13394</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.003749215296403359</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
+      <c r="I13" t="n">
+        <v>15</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1663798732.443022</v>
       </c>
     </row>
     <row r="14">
@@ -819,19 +901,25 @@
         <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>7024813873.265665</v>
+        <v>3673472652.536189</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002246310029440941</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>11</v>
+        <v>0.1475417421384542</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03222425810222679</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>16</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1836736311.825327</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>5239902011.748585</v>
+        <v>1524710789.436418</v>
       </c>
       <c r="F15" t="n">
-        <v>0.003599319521039042</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>14</v>
+        <v>0.07876464405587125</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03732484232571012</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>762355485.6825789</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>7973113064.842454</v>
+        <v>2336898960.994576</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003509117748052697</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>14</v>
+        <v>0.08919487603956258</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.05093466802052247</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1168449525.740637</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>6375414764.093206</v>
+        <v>4007651733.537356</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002201273235842853</v>
-      </c>
-      <c r="G17" t="b">
+        <v>0.1612429379203296</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04658158061295125</v>
+      </c>
+      <c r="H17" t="b">
         <v>1</v>
       </c>
-      <c r="H17" t="n">
-        <v>9</v>
+      <c r="I17" t="n">
+        <v>13</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2003825900.855579</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>4663929464.699396</v>
+        <v>2849936988.145417</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0009892867321211066</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>13</v>
+        <v>0.1789242585046368</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.03313595495500687</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>15</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1424968535.022709</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>4718877283.714082</v>
+        <v>837294611.4491203</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001575387395253205</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1762216991637472</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02291500731736481</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>418647295.1965142</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>5052858881.402129</v>
+        <v>2216111365.92339</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001390586125652907</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
+        <v>0.1207161388715345</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02923743562294419</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1108055686.143772</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>6467724375.153087</v>
+        <v>1815776104.35945</v>
       </c>
       <c r="F21" t="n">
-        <v>0.005423807310650793</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
+        <v>0.07718574865812444</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03073999411701498</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>907888105.5695714</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" t="n">
+        <v>462</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3031120620.713416</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.1221078432024883</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.05199395908474528</v>
+      </c>
+      <c r="H22" t="b">
         <v>1</v>
       </c>
-      <c r="D22" t="n">
-        <v>441</v>
-      </c>
-      <c r="E22" t="n">
-        <v>5215425231.283355</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.005103043645502028</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
+      <c r="I22" t="n">
+        <v>12</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1515560369.888394</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>6071115207.754534</v>
+        <v>1171068667.47823</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001462877668444291</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>9</v>
+        <v>0.1290914313691009</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04614921353740535</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>585534374.9711701</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>6943435481.601969</v>
+        <v>3192189944.316999</v>
       </c>
       <c r="F24" t="n">
-        <v>0.004851341671751989</v>
-      </c>
-      <c r="G24" t="b">
+        <v>0.09196352705020885</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03205194822695722</v>
+      </c>
+      <c r="H24" t="b">
         <v>1</v>
       </c>
-      <c r="H24" t="n">
-        <v>11</v>
+      <c r="I24" t="n">
+        <v>13</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1596094994.301455</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>6703665178.438407</v>
+        <v>1175606977.918327</v>
       </c>
       <c r="F25" t="n">
-        <v>0.002922884909000007</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>10</v>
+        <v>0.09299241506261152</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02380863387213739</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>587803512.3961371</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>4809619196.225315</v>
+        <v>1320156013.069111</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001052326405767939</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1108210358280448</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03909135915305451</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>660078056.8348633</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>8291025824.239813</v>
+        <v>3377996348.58118</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003832554774811737</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>12</v>
+        <v>0.1317582815896674</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02456283055946578</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>10</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1688998215.201803</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>8005847789.348548</v>
+        <v>2450610539.450418</v>
       </c>
       <c r="F28" t="n">
-        <v>0.004341744683930139</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>12</v>
+        <v>0.1066325919001265</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03700676508697461</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>15</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1225305233.104714</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5756887046.039057</v>
+        <v>5580296371.052617</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001080393849144389</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>13</v>
+        <v>0.1075600210393369</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.03244891438434551</v>
+      </c>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>21</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2790148092.611921</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>6456007765.794501</v>
+        <v>1875626561.225633</v>
       </c>
       <c r="F30" t="n">
-        <v>0.002663658601959265</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>15</v>
+        <v>0.08765253233535492</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.03132850428334197</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>937813303.7416222</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>5800268035.441896</v>
+        <v>1421691829.500121</v>
       </c>
       <c r="F31" t="n">
-        <v>0.003153163773511385</v>
-      </c>
-      <c r="G31" t="b">
-        <v>1</v>
-      </c>
-      <c r="H31" t="n">
-        <v>9</v>
+        <v>0.1056630392654146</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.03583834023900805</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>710845813.904013</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>5012680630.181908</v>
+        <v>1264487138.906323</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001386727054680532</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.09918911902223619</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.03872658190840318</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>632243588.9104775</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>5847500109.890277</v>
+        <v>2909195719.087873</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0026419305031309</v>
-      </c>
-      <c r="G33" t="b">
+        <v>0.1534079842664905</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.05750769958763829</v>
+      </c>
+      <c r="H33" t="b">
         <v>1</v>
       </c>
-      <c r="H33" t="n">
-        <v>9</v>
+      <c r="I33" t="n">
+        <v>13</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1454597862.766081</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>5379303806.77106</v>
+        <v>1163664003.729705</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004466485007027822</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>14</v>
+        <v>0.09546809519084525</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0265057794412446</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>581832012.7436252</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>5656080772.03594</v>
+        <v>1113676740.473954</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002221688558557016</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>12</v>
+        <v>0.08497005365580107</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03680976823552263</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>556838363.7445941</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>7630285098.659772</v>
+        <v>2736126475.015325</v>
       </c>
       <c r="F36" t="n">
-        <v>0.002469092407050355</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36" t="n">
-        <v>13</v>
+        <v>0.1485863252471328</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02751646784446661</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>12</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1368063240.434565</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>4351072070.247972</v>
+        <v>2889939347.621022</v>
       </c>
       <c r="F37" t="n">
-        <v>0.004979641332731278</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>13</v>
+        <v>0.07096046936484099</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.04209683541520998</v>
+      </c>
+      <c r="H37" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>12</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1444969823.381132</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>4861987514.459598</v>
+        <v>1544910183.679736</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003976304805319928</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.09054996114595863</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.0303198683460615</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>772455134.5950044</v>
       </c>
     </row>
     <row r="39">
@@ -1519,19 +1751,25 @@
         <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>4950141775.039028</v>
+        <v>1440255330.179506</v>
       </c>
       <c r="F39" t="n">
-        <v>0.003152077552436992</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>4</v>
+        <v>0.1775988319975839</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.03176054924871873</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>720127744.4606054</v>
       </c>
     </row>
     <row r="40">
@@ -1547,19 +1785,25 @@
         <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>6428051479.696951</v>
+        <v>1642485729.166233</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004664701680549739</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="n">
-        <v>10</v>
+        <v>0.1516512220464983</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.05895180849298567</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>821242794.9740733</v>
       </c>
     </row>
     <row r="41">
@@ -1575,19 +1819,25 @@
         <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>5425315296.054242</v>
+        <v>2147106012.536115</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001279163068800495</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>13</v>
+        <v>0.1649143412694209</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.03124088741295368</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>12</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1073553065.937455</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4579245925.352643</v>
+        <v>3411185223.887845</v>
       </c>
       <c r="F42" t="n">
-        <v>0.00363037750264126</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>12</v>
+        <v>0.09021905658786082</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.04339392523685838</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>16</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1705592600.524103</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>5914449205.353033</v>
+        <v>2009365123.639595</v>
       </c>
       <c r="F43" t="n">
-        <v>0.00337036488492074</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>11</v>
+        <v>0.1899667520941813</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02403007978084625</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>16</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1004682659.610059</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>6872282963.499646</v>
+        <v>1766456355.602056</v>
       </c>
       <c r="F44" t="n">
-        <v>0.00197446464336737</v>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="n">
-        <v>12</v>
+        <v>0.0888560222633024</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.02328628135216962</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>883228237.4106295</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>4890094508.059694</v>
+        <v>1737816081.868531</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001143359329604804</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1551495065495768</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.04484831952484147</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>868908005.2591139</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>7265299647.262818</v>
+        <v>3514524453.521872</v>
       </c>
       <c r="F46" t="n">
-        <v>0.00549460397314812</v>
-      </c>
-      <c r="G46" t="b">
+        <v>0.1469126308593805</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.03908900682724711</v>
+      </c>
+      <c r="H46" t="b">
         <v>1</v>
       </c>
-      <c r="H46" t="n">
-        <v>7</v>
+      <c r="I46" t="n">
+        <v>16</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1757262168.348075</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>6318152648.126074</v>
+        <v>3253271807.767897</v>
       </c>
       <c r="F47" t="n">
-        <v>0.003189494102017689</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>6</v>
+        <v>0.1988159677490412</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.04569029083248105</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>12</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1626635860.537677</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>5403939887.294886</v>
+        <v>2899310415.718606</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002614677674674855</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>8</v>
+        <v>0.07617446990139</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.02972712746954327</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>16</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1449655306.044304</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>3902653634.934083</v>
+        <v>1844667336.585971</v>
       </c>
       <c r="F49" t="n">
-        <v>0.003811903350973991</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.1353002161881426</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.02817865454580572</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>922333646.5730847</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>8023656467.104943</v>
+        <v>2976049132.152167</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003585193329654468</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>14</v>
+        <v>0.1227259637849304</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.03412086985528409</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>16</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1488024627.48112</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>3778258039.45087</v>
+        <v>1298202430.611344</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004446701474175387</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1366786244021382</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.04762352807311578</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>649101250.7784193</v>
       </c>
     </row>
     <row r="52">
@@ -1883,19 +2193,25 @@
         <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5383365508.756684</v>
+        <v>5139967429.60434</v>
       </c>
       <c r="F52" t="n">
-        <v>0.002220024855462347</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>11</v>
+        <v>0.0927350387368905</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.04297736419462556</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>19</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2569983704.055312</v>
       </c>
     </row>
     <row r="53">
@@ -1911,19 +2227,25 @@
         <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>5000840850.876806</v>
+        <v>2910576671.141294</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002206895855952915</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>9</v>
+        <v>0.1958936380059881</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.02141607295140446</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>14</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1455288374.040817</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>5558221349.923555</v>
+        <v>3774858310.186145</v>
       </c>
       <c r="F54" t="n">
-        <v>0.003601666698701154</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>11</v>
+        <v>0.1082846703567761</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.03863823545431461</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>15</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1887429201.354527</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>7163061949.478478</v>
+        <v>3100847048.823227</v>
       </c>
       <c r="F55" t="n">
-        <v>0.004374104087074358</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>15</v>
+        <v>0.1906832173669883</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02187359052235652</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>12</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1550423459.494981</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>5184825866.175499</v>
+        <v>1721380539.978605</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002879613932528993</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>6</v>
+        <v>0.1586107811695048</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.04936778927155539</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>860690279.3434411</v>
       </c>
     </row>
     <row r="57">
@@ -2023,19 +2363,25 @@
         <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>6545096152.628276</v>
+        <v>3024287137.101377</v>
       </c>
       <c r="F57" t="n">
-        <v>0.003983639407007081</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>12</v>
+        <v>0.1340290777866687</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02495631297363251</v>
+      </c>
+      <c r="H57" t="b">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>14</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1512143574.868307</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>4931918192.624325</v>
+        <v>1411584407.238742</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002681085115573254</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>10</v>
+        <v>0.140075430076132</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03906874262047023</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>705792242.6658953</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5170140637.592871</v>
+        <v>5199029954.912227</v>
       </c>
       <c r="F59" t="n">
-        <v>0.004201680589269801</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>5</v>
+        <v>0.1173960136238014</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.03539103568630243</v>
+      </c>
+      <c r="H59" t="b">
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>12</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2599514895.409604</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>4787998322.895871</v>
+        <v>3342044657.225849</v>
       </c>
       <c r="F60" t="n">
-        <v>0.00412732043847168</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.1772322378195803</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02162644589072255</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>14</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1671022434.667564</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>4784447373.690239</v>
+        <v>2403846132.390045</v>
       </c>
       <c r="F61" t="n">
-        <v>0.003649386263127538</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>10</v>
+        <v>0.1625281077591079</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02956427702861411</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>15</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1201923102.744175</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>6593007565.735031</v>
+        <v>1745022727.432869</v>
       </c>
       <c r="F62" t="n">
-        <v>0.002653697824650376</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>9</v>
+        <v>0.1840872815107805</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03241321383539319</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>872511383.4072723</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>7524323867.6994</v>
+        <v>5204634045.835253</v>
       </c>
       <c r="F63" t="n">
-        <v>0.004559390702048984</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>12</v>
+        <v>0.1032626060666849</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.04184547521633322</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>13</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2602317031.404417</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
+        <v>4</v>
+      </c>
+      <c r="D64" t="n">
+        <v>491</v>
+      </c>
+      <c r="E64" t="n">
+        <v>4351372363.996477</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.165845829318053</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.03357362257509448</v>
+      </c>
+      <c r="H64" t="b">
         <v>1</v>
       </c>
-      <c r="D64" t="n">
-        <v>545</v>
-      </c>
-      <c r="E64" t="n">
-        <v>3897425132.184407</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0.004480728567432429</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+      <c r="I64" t="n">
+        <v>14</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2175686242.432297</v>
       </c>
     </row>
     <row r="65">
@@ -2247,19 +2635,25 @@
         <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>6687516194.043313</v>
+        <v>4010896271.711453</v>
       </c>
       <c r="F65" t="n">
-        <v>0.004318232383979651</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>12</v>
+        <v>0.1624108424866325</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02090334586474701</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>16</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2005448153.646097</v>
       </c>
     </row>
     <row r="66">
@@ -2275,19 +2669,25 @@
         <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4202367367.987201</v>
+        <v>3597722545.10036</v>
       </c>
       <c r="F66" t="n">
-        <v>0.002637781790822214</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>9</v>
+        <v>0.1458136012202329</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.04835041590815687</v>
+      </c>
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>13</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1798861224.402537</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>5365876377.82343</v>
+        <v>3054668968.045573</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004798166799581356</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>7</v>
+        <v>0.1022726410149697</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.03817959608445428</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>15</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1527334497.543099</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>7523326376.671333</v>
+        <v>4415642672.088066</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002992803227362825</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>10</v>
+        <v>0.1347706808414685</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.03542547843305094</v>
+      </c>
+      <c r="H68" t="b">
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>14</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2207821356.875722</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>5278030197.834066</v>
+        <v>2150449555.659959</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001188438919371181</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>9</v>
+        <v>0.1820296808183244</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.04741371320195176</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1075224802.087898</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>5925647864.011924</v>
+        <v>2999893984.880685</v>
       </c>
       <c r="F70" t="n">
-        <v>0.002727994513525054</v>
-      </c>
-      <c r="G70" t="b">
-        <v>1</v>
-      </c>
-      <c r="H70" t="n">
-        <v>11</v>
+        <v>0.06529207809353103</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.04627303548348496</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>13</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1499946969.254394</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3555595278.068368</v>
+        <v>4065570988.594398</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003632763283578432</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1538071141556675</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02968591078825924</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>17</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2032785530.1239</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>8289921127.307699</v>
+        <v>1629861816.883619</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002324655011671655</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>10</v>
+        <v>0.06760229411797986</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.03203841965419397</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>814930914.3539844</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>5493303543.092434</v>
+        <v>3032130402.643472</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001259717980338138</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>10</v>
+        <v>0.0961114238205307</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.03936801628721281</v>
+      </c>
+      <c r="H73" t="b">
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>17</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1516065194.205125</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>4622156578.009587</v>
+        <v>2740428713.86612</v>
       </c>
       <c r="F74" t="n">
-        <v>0.005114278712508003</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>10</v>
+        <v>0.1516055181713428</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.03388082986776719</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>16</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1370214444.605469</v>
       </c>
     </row>
     <row r="75">
@@ -2527,19 +2975,25 @@
         <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>6503594736.847105</v>
+        <v>2325969049.470706</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003963899922350049</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>9</v>
+        <v>0.1449510177871287</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.02569370071274714</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1162984458.179667</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>6770331187.769266</v>
+        <v>5079481160.589098</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002564654053452155</v>
-      </c>
-      <c r="G76" t="b">
-        <v>1</v>
-      </c>
-      <c r="H76" t="n">
-        <v>9</v>
+        <v>0.117091629823278</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.0284320020565472</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>10</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2539740610.124385</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>6389583697.106256</v>
+        <v>1957909998.818486</v>
       </c>
       <c r="F77" t="n">
-        <v>0.005374927558934639</v>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="n">
-        <v>15</v>
+        <v>0.1701400999262438</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.01989655909162282</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>978955054.6029005</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>7012587403.727939</v>
+        <v>2947222395.614663</v>
       </c>
       <c r="F78" t="n">
-        <v>0.004770706996436024</v>
-      </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="n">
-        <v>9</v>
+        <v>0.1258072724045031</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.05516405540205663</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>16</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1473611238.804812</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>8327718894.957353</v>
+        <v>1506126957.38465</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002569415880291877</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>10</v>
+        <v>0.1397139963392451</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.02447979554497647</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>753063513.8447111</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5592524115.284955</v>
+        <v>4023312444.612149</v>
       </c>
       <c r="F80" t="n">
-        <v>0.003283612605917943</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>14</v>
+        <v>0.07514245194487881</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.02670515527151269</v>
+      </c>
+      <c r="H80" t="b">
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>9</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2011656222.805329</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4779643866.264676</v>
+        <v>4961613740.658626</v>
       </c>
       <c r="F81" t="n">
-        <v>0.003793761566910702</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>8</v>
+        <v>0.09804165672374081</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.0223256264642118</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>10</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2480806869.16377</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>6137281087.468954</v>
+        <v>4209396497.326619</v>
       </c>
       <c r="F82" t="n">
-        <v>0.00386269419513635</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>9</v>
+        <v>0.1631908628040246</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02366555408478356</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>17</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2104698276.611578</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>10098286258.9</v>
+        <v>2085674677.064345</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003147021472112509</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>12</v>
+        <v>0.1198880784394766</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03758191517957306</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1042837334.320317</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>5572541241.809872</v>
+        <v>2253133224.228734</v>
       </c>
       <c r="F84" t="n">
-        <v>0.004653071816835045</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>13</v>
+        <v>0.07810515689017776</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04151721867036103</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1126566579.919388</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>4099385837.023532</v>
+        <v>3119201041.875432</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003433023744671473</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.1132356550681422</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.0421318621022342</v>
+      </c>
+      <c r="H85" t="b">
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>17</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1559600594.108163</v>
       </c>
     </row>
     <row r="86">
@@ -2835,19 +3349,25 @@
         <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>6838504945.842168</v>
+        <v>2459987511.04677</v>
       </c>
       <c r="F86" t="n">
-        <v>0.001774540623879723</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>14</v>
+        <v>0.1561465264646379</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02277886304748823</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>4</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1229993846.932818</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>3603412786.871318</v>
+        <v>1274993730.880435</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001028622740887312</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1308540696962467</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.03935927861630645</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>637496940.1081882</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>9125704214.783428</v>
+        <v>2351249971.099237</v>
       </c>
       <c r="F88" t="n">
-        <v>0.003766353318114271</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>11</v>
+        <v>0.1416124989699397</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.02483676244928816</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>17</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1175624951.767313</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>5409657445.652702</v>
+        <v>3161057374.446103</v>
       </c>
       <c r="F89" t="n">
-        <v>0.003977505803731639</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>9</v>
+        <v>0.1046915865158914</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.02831400500697674</v>
+      </c>
+      <c r="H89" t="b">
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>15</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1580528713.384691</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>7215145257.129766</v>
+        <v>1380160054.591891</v>
       </c>
       <c r="F90" t="n">
-        <v>0.00266536947932545</v>
-      </c>
-      <c r="G90" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" t="n">
-        <v>8</v>
+        <v>0.09217468714231247</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.04998089435205166</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>690079983.9458047</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>6252503817.715481</v>
+        <v>1819462707.378734</v>
       </c>
       <c r="F91" t="n">
-        <v>0.004126862042162815</v>
-      </c>
-      <c r="G91" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" t="n">
-        <v>13</v>
+        <v>0.1712642390204292</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.06148184027847573</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>909731349.8676288</v>
       </c>
     </row>
     <row r="92">
@@ -3003,19 +3553,25 @@
         <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>4065742107.267702</v>
+        <v>2334150112.340279</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003981497201825507</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.08644939728301482</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.02872591988842087</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>12</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1167075027.442773</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5302023785.138719</v>
+        <v>3793335211.131515</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001329179971016691</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>17</v>
+        <v>0.1295387233694166</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04924568816817895</v>
+      </c>
+      <c r="H93" t="b">
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>13</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1896667619.378908</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>5595989303.467862</v>
+        <v>1588377874.470523</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001485704810577072</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>15</v>
+        <v>0.1564235805651941</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.03006240213011203</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>794188881.8993881</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>5364083099.013995</v>
+        <v>2799866613.250363</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002296306229652541</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
-        <v>12</v>
+        <v>0.1180926286141652</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.04718622526037421</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>11</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1399933320.76493</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>8907311665.17074</v>
+        <v>1913019772.042586</v>
       </c>
       <c r="F96" t="n">
-        <v>0.003275622901794277</v>
-      </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" t="n">
-        <v>12</v>
+        <v>0.1417513652106029</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.0371879331429356</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>956509882.1400316</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>6970325114.448569</v>
+        <v>3717526195.345695</v>
       </c>
       <c r="F97" t="n">
-        <v>0.004269966142785827</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>12</v>
+        <v>0.1495700493011702</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.01834027096886768</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>15</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1858763131.198077</v>
       </c>
     </row>
     <row r="98">
@@ -3171,19 +3757,25 @@
         <v>2</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>8628317321.931463</v>
+        <v>2455575970.689175</v>
       </c>
       <c r="F98" t="n">
-        <v>0.00421746064342664</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>18</v>
+        <v>0.08935690696959248</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02587512091781283</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>13</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1227787932.974039</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2438027817.39866</v>
+        <v>2379816759.83008</v>
       </c>
       <c r="F99" t="n">
-        <v>0.005570027022011719</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.0984500174052762</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.0346422315131351</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>13</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1189908320.721478</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>6051773852.586071</v>
+        <v>2945986974.010371</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002746885068614785</v>
-      </c>
-      <c r="G100" t="b">
-        <v>1</v>
-      </c>
-      <c r="H100" t="n">
-        <v>4</v>
+        <v>0.1417468889273726</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02564380825650657</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>14</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1472993473.416008</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>7889186831.754038</v>
+        <v>2659367463.639503</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001544170360388335</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>15</v>
+        <v>0.2204561467929757</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.04121005819724487</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>19</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1329683775.717471</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_46.xlsx
+++ b/output/fit_clients/fit_round_46.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1879699798.267701</v>
+        <v>1650458486.148284</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08423139521952165</v>
+        <v>0.08777231072075889</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03456070558135767</v>
+        <v>0.02850020916831199</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>939849878.4256968</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2078794546.491367</v>
+        <v>2415406006.191741</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1287562455661767</v>
+        <v>0.1206245512885676</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04326910991030044</v>
+        <v>0.04991784570805545</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1039397325.362672</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4152833345.811261</v>
+        <v>4000261632.921426</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1641437612553077</v>
+        <v>0.1095633493791054</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03793537446898806</v>
+        <v>0.03679345953755504</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>17</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2076416697.764956</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2941027806.158339</v>
+        <v>4060934306.149909</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1051463874160215</v>
+        <v>0.09486823526390369</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04186555603737186</v>
+        <v>0.03750801759147337</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>17</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1470513976.632023</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2316588151.539921</v>
+        <v>2817906868.597967</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0911970447990184</v>
+        <v>0.1261843908563103</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03513041327446711</v>
+        <v>0.05492048997202736</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1158294070.955731</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2939368892.269649</v>
+        <v>2843367479.701818</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08891715404177797</v>
+        <v>0.08743862241869955</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03385221355715368</v>
+        <v>0.04543742397873144</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>14</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1469684416.704109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3425290342.679644</v>
+        <v>3332028281.167145</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1713235920084357</v>
+        <v>0.1774571111558284</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02452948264616259</v>
+        <v>0.02089918288376997</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1712645272.189473</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2250868466.75323</v>
+        <v>1570558169.767159</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1230816804180685</v>
+        <v>0.1607304079322848</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02702406139171644</v>
+        <v>0.02348110328543604</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1125434224.994844</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3632652467.267339</v>
+        <v>5291237387.365417</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2116422195613301</v>
+        <v>0.1422307731011682</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03355838287826873</v>
+        <v>0.03829105868711485</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>19</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1816326226.939401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4165065295.636014</v>
+        <v>3023290869.429251</v>
       </c>
       <c r="F11" t="n">
-        <v>0.140452706282693</v>
+        <v>0.1414765959111981</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04469353148917206</v>
+        <v>0.0404826375620523</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>19</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2082532671.928541</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2547723640.604408</v>
+        <v>2040492836.227709</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1498357387906284</v>
+        <v>0.1896361140515488</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03872004951433188</v>
+        <v>0.04484484206524399</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>16</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1273861796.756616</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3327597287.005619</v>
+        <v>4234197768.367474</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09114182414903485</v>
+        <v>0.1016202253567966</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02937131555310885</v>
+        <v>0.0242239307530868</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>15</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1663798732.443022</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3673472652.536189</v>
+        <v>3472663877.193401</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1475417421384542</v>
+        <v>0.1454310478247609</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03222425810222679</v>
+        <v>0.04151042658706704</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>16</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1836736311.825327</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1524710789.436418</v>
+        <v>1545575609.234959</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07876464405587125</v>
+        <v>0.09279836884332762</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03732484232571012</v>
+        <v>0.0350472212404507</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>762355485.6825789</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2336898960.994576</v>
+        <v>2048053134.678383</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08919487603956258</v>
+        <v>0.11298896179934</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05093466802052247</v>
+        <v>0.04220424975640667</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1168449525.740637</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4007651733.537356</v>
+        <v>4444661287.088479</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1612429379203296</v>
+        <v>0.147159391872325</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04658158061295125</v>
+        <v>0.04805381690742654</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>13</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2003825900.855579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2849936988.145417</v>
+        <v>2861926739.088901</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1789242585046368</v>
+        <v>0.1336067788889957</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03313595495500687</v>
+        <v>0.02660779857153274</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>15</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1424968535.022709</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>837294611.4491203</v>
+        <v>1365300635.753867</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1762216991637472</v>
+        <v>0.1709991324107706</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02291500731736481</v>
+        <v>0.02664646878875505</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>418647295.1965142</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2216111365.92339</v>
+        <v>2409387010.574069</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1207161388715345</v>
+        <v>0.1367308545664036</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02923743562294419</v>
+        <v>0.02941004000844548</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1108055686.143772</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1815776104.35945</v>
+        <v>2030110910.904328</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07718574865812444</v>
+        <v>0.08356525334472646</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03073999411701498</v>
+        <v>0.03518439112968638</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>5</v>
-      </c>
-      <c r="J21" t="n">
-        <v>907888105.5695714</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3031120620.713416</v>
+        <v>3454887735.719911</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1221078432024883</v>
+        <v>0.1050966247859749</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05199395908474528</v>
+        <v>0.04058525077912745</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>12</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1515560369.888394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1171068667.47823</v>
+        <v>1173476647.194787</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1290914313691009</v>
+        <v>0.1862701049347245</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04614921353740535</v>
+        <v>0.04756809973100489</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>585534374.9711701</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3192189944.316999</v>
+        <v>2837249925.923692</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09196352705020885</v>
+        <v>0.1005671374359168</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03205194822695722</v>
+        <v>0.03126381531383689</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>13</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1596094994.301455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1175606977.918327</v>
+        <v>1107773466.872453</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09299241506261152</v>
+        <v>0.1027611049700154</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02380863387213739</v>
+        <v>0.02124892504795271</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>587803512.3961371</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1320156013.069111</v>
+        <v>1116843940.670463</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1108210358280448</v>
+        <v>0.1149171026180253</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03909135915305451</v>
+        <v>0.02711422055289936</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>660078056.8348633</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3377996348.58118</v>
+        <v>3801242604.657372</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1317582815896674</v>
+        <v>0.1457199804115469</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02456283055946578</v>
+        <v>0.02436023728630748</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>10</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1688998215.201803</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2450610539.450418</v>
+        <v>3784536802.786294</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1066325919001265</v>
+        <v>0.1518991785188441</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03700676508697461</v>
+        <v>0.0332726971500002</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>15</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1225305233.104714</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5580296371.052617</v>
+        <v>4481794433.716353</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1075600210393369</v>
+        <v>0.1214058612768075</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03244891438434551</v>
+        <v>0.03705324599594854</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>21</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2790148092.611921</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1875626561.225633</v>
+        <v>1502435224.259961</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08765253233535492</v>
+        <v>0.09394037805999532</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03132850428334197</v>
+        <v>0.03151990518862249</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>937813303.7416222</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1421691829.500121</v>
+        <v>1398283111.756406</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1056630392654146</v>
+        <v>0.09195598454600966</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03583834023900805</v>
+        <v>0.04891629918472916</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>710845813.904013</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1264487138.906323</v>
+        <v>1596248311.015322</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09918911902223619</v>
+        <v>0.08366220638157434</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03872658190840318</v>
+        <v>0.03539111656337444</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>632243588.9104775</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2909195719.087873</v>
+        <v>2797336459.066349</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1534079842664905</v>
+        <v>0.1283858736299189</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05750769958763829</v>
+        <v>0.05840758095412141</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>13</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1454597862.766081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1163664003.729705</v>
+        <v>1367483113.858183</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09546809519084525</v>
+        <v>0.110396494896198</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0265057794412446</v>
+        <v>0.0246951637260534</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>581832012.7436252</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1113676740.473954</v>
+        <v>1053644704.627214</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08497005365580107</v>
+        <v>0.08989658139859187</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03680976823552263</v>
+        <v>0.03887469404624923</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>556838363.7445941</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2736126475.015325</v>
+        <v>2935111285.333762</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1485863252471328</v>
+        <v>0.164621869584402</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02751646784446661</v>
+        <v>0.02667481501694268</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>12</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1368063240.434565</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2889939347.621022</v>
+        <v>2725846362.364575</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07096046936484099</v>
+        <v>0.101716704656232</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04209683541520998</v>
+        <v>0.02730425226838305</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>12</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1444969823.381132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1544910183.679736</v>
+        <v>1453069062.659011</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09054996114595863</v>
+        <v>0.07566780176295412</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0303198683460615</v>
+        <v>0.03699118474015521</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>772455134.5950044</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1440255330.179506</v>
+        <v>1946726692.618604</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1775988319975839</v>
+        <v>0.1878708599472833</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03176054924871873</v>
+        <v>0.02329446862935123</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>720127744.4606054</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1642485729.166233</v>
+        <v>1500955128.408392</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1516512220464983</v>
+        <v>0.129454084693876</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05895180849298567</v>
+        <v>0.05660670374701683</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>821242794.9740733</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2147106012.536115</v>
+        <v>2242749189.377371</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1649143412694209</v>
+        <v>0.1327505042697314</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03124088741295368</v>
+        <v>0.04237356621125807</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>12</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1073553065.937455</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3411185223.887845</v>
+        <v>3112441634.728812</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09021905658786082</v>
+        <v>0.07794872274762649</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04339392523685838</v>
+        <v>0.04405377900642014</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>16</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1705592600.524103</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2009365123.639595</v>
+        <v>2994451128.037279</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1899667520941813</v>
+        <v>0.1241241808350337</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02403007978084625</v>
+        <v>0.01737384727039553</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>16</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1004682659.610059</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1766456355.602056</v>
+        <v>1693693582.772172</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0888560222633024</v>
+        <v>0.06770633988878696</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02328628135216962</v>
+        <v>0.03399029873589365</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>883228237.4106295</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1737816081.868531</v>
+        <v>2085195889.126669</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1551495065495768</v>
+        <v>0.1338003454807032</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04484831952484147</v>
+        <v>0.04666342781723532</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>868908005.2591139</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3514524453.521872</v>
+        <v>5146736821.387655</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1469126308593805</v>
+        <v>0.114485814472667</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03908900682724711</v>
+        <v>0.03701942327852143</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>16</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1757262168.348075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3253271807.767897</v>
+        <v>4907806328.282817</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1988159677490412</v>
+        <v>0.1705938501287784</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04569029083248105</v>
+        <v>0.04246107191384549</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>12</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1626635860.537677</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2899310415.718606</v>
+        <v>4437462485.482448</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07617446990139</v>
+        <v>0.08882088686368303</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02972712746954327</v>
+        <v>0.0272698163128043</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>16</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1449655306.044304</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1844667336.585971</v>
+        <v>1325377826.117058</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1353002161881426</v>
+        <v>0.1590027840910641</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02817865454580572</v>
+        <v>0.03619611833043574</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>922333646.5730847</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2976049132.152167</v>
+        <v>3913410125.374149</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1227259637849304</v>
+        <v>0.1428809724617129</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03412086985528409</v>
+        <v>0.04217651528077226</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>16</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1488024627.48112</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1298202430.611344</v>
+        <v>1278483558.450502</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1366786244021382</v>
+        <v>0.127957338136802</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04762352807311578</v>
+        <v>0.04666892180103162</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>649101250.7784193</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5139967429.60434</v>
+        <v>3898607489.834186</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0927350387368905</v>
+        <v>0.08835926326079128</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04297736419462556</v>
+        <v>0.05252325926291788</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>19</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2569983704.055312</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2910576671.141294</v>
+        <v>3318041479.273546</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1958936380059881</v>
+        <v>0.1433778109806827</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02141607295140446</v>
+        <v>0.02410172639352625</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>14</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1455288374.040817</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3774858310.186145</v>
+        <v>3293708349.430731</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1082846703567761</v>
+        <v>0.1610717747175763</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03863823545431461</v>
+        <v>0.04511942639161177</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>15</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1887429201.354527</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3100847048.823227</v>
+        <v>4112670687.91714</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1906832173669883</v>
+        <v>0.2073097677619509</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02187359052235652</v>
+        <v>0.02302208606857214</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>12</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1550423459.494981</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1721380539.978605</v>
+        <v>1653047322.870836</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1586107811695048</v>
+        <v>0.143093723202323</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04936778927155539</v>
+        <v>0.0447717871953027</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>860690279.3434411</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3024287137.101377</v>
+        <v>3095814695.339176</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1340290777866687</v>
+        <v>0.1149214061312503</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02495631297363251</v>
+        <v>0.01831969842026543</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>14</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1512143574.868307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1411584407.238742</v>
+        <v>1259930753.479861</v>
       </c>
       <c r="F58" t="n">
-        <v>0.140075430076132</v>
+        <v>0.1876618388799046</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03906874262047023</v>
+        <v>0.02446636287970705</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>705792242.6658953</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5199029954.912227</v>
+        <v>4177310156.195596</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1173960136238014</v>
+        <v>0.1209917942246239</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03539103568630243</v>
+        <v>0.0359731723127942</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>12</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2599514895.409604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3342044657.225849</v>
+        <v>2875963999.624861</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1772322378195803</v>
+        <v>0.1719069526824596</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02162644589072255</v>
+        <v>0.02533978257924297</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>14</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1671022434.667564</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2403846132.390045</v>
+        <v>2986448808.790266</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1625281077591079</v>
+        <v>0.1736006291260987</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02956427702861411</v>
+        <v>0.02679417251946411</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>15</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1201923102.744175</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1745022727.432869</v>
+        <v>1891741371.119588</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1840872815107805</v>
+        <v>0.1627162840771562</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03241321383539319</v>
+        <v>0.04075432627530866</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>872511383.4072723</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5204634045.835253</v>
+        <v>3906033382.36145</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1032626060666849</v>
+        <v>0.07059758294215158</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04184547521633322</v>
+        <v>0.03369117869434252</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>13</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2602317031.404417</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4351372363.996477</v>
+        <v>5006232367.40847</v>
       </c>
       <c r="F64" t="n">
-        <v>0.165845829318053</v>
+        <v>0.1381372157292167</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03357362257509448</v>
+        <v>0.03507592968186012</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>14</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2175686242.432297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4010896271.711453</v>
+        <v>5180595756.902102</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1624108424866325</v>
+        <v>0.1336518224794144</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02090334586474701</v>
+        <v>0.02287776602050022</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>16</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2005448153.646097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3597722545.10036</v>
+        <v>4526988962.314383</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1458136012202329</v>
+        <v>0.1058631202186183</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04835041590815687</v>
+        <v>0.03367895050611171</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>13</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1798861224.402537</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3054668968.045573</v>
+        <v>2304962752.085057</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1022726410149697</v>
+        <v>0.07565919982170549</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03817959608445428</v>
+        <v>0.04883067092392458</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>15</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1527334497.543099</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4415642672.088066</v>
+        <v>5215105309.337927</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1347706808414685</v>
+        <v>0.1481487112341285</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03542547843305094</v>
+        <v>0.04818068107192834</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>14</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2207821356.875722</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2150449555.659959</v>
+        <v>1743807790.347089</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1820296808183244</v>
+        <v>0.1793107217132207</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04741371320195176</v>
+        <v>0.04568215726101225</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1075224802.087898</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2999893984.880685</v>
+        <v>2743255030.956526</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06529207809353103</v>
+        <v>0.0768028644702914</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04627303548348496</v>
+        <v>0.04460995904878731</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>13</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1499946969.254394</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4065570988.594398</v>
+        <v>5128111303.043007</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1538071141556675</v>
+        <v>0.1629331356856147</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02968591078825924</v>
+        <v>0.02234291359959092</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>17</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2032785530.1239</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1629861816.883619</v>
+        <v>1680832383.479461</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06760229411797986</v>
+        <v>0.08368557549012125</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03203841965419397</v>
+        <v>0.03619513732286825</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>814930914.3539844</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3032130402.643472</v>
+        <v>2645108356.481082</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0961114238205307</v>
+        <v>0.07401132270196029</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03936801628721281</v>
+        <v>0.03500714020620869</v>
       </c>
       <c r="H73" t="b">
         <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>17</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1516065194.205125</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2740428713.86612</v>
+        <v>2995214962.658865</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1516055181713428</v>
+        <v>0.139623282941139</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03388082986776719</v>
+        <v>0.03116612935034722</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>16</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1370214444.605469</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2325969049.470706</v>
+        <v>1710486232.905159</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1449510177871287</v>
+        <v>0.1553523215069043</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02569370071274714</v>
+        <v>0.03056983446426304</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1162984458.179667</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5079481160.589098</v>
+        <v>5252203008.266889</v>
       </c>
       <c r="F76" t="n">
-        <v>0.117091629823278</v>
+        <v>0.08271561074272196</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0284320020565472</v>
+        <v>0.0321729993903417</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>10</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2539740610.124385</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1957909998.818486</v>
+        <v>1936329311.33157</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1701400999262438</v>
+        <v>0.1757334096159293</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01989655909162282</v>
+        <v>0.03007849305883622</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>978955054.6029005</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2947222395.614663</v>
+        <v>4778050690.027702</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1258072724045031</v>
+        <v>0.1295585304101037</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05516405540205663</v>
+        <v>0.05192860215316863</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>16</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1473611238.804812</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1506126957.38465</v>
+        <v>1452430308.980211</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1397139963392451</v>
+        <v>0.1114788526350974</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02447979554497647</v>
+        <v>0.03624721775380632</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>753063513.8447111</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4023312444.612149</v>
+        <v>3911937044.730097</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07514245194487881</v>
+        <v>0.09798250292010327</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02670515527151269</v>
+        <v>0.03685877863719329</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>9</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2011656222.805329</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4961613740.658626</v>
+        <v>3526750954.485748</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09804165672374081</v>
+        <v>0.0852083597904871</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0223256264642118</v>
+        <v>0.02761479562606884</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>10</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2480806869.16377</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4209396497.326619</v>
+        <v>4496945323.292339</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1631908628040246</v>
+        <v>0.2019672140507933</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02366555408478356</v>
+        <v>0.02018613927178771</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>17</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2104698276.611578</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2085674677.064345</v>
+        <v>1683197975.977786</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1198880784394766</v>
+        <v>0.1336161000825511</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03758191517957306</v>
+        <v>0.03380315424617501</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1042837334.320317</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2253133224.228734</v>
+        <v>2494557694.982837</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07810515689017776</v>
+        <v>0.1145660182100533</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04151721867036103</v>
+        <v>0.03408645962843993</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1126566579.919388</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3119201041.875432</v>
+        <v>3277162171.209718</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1132356550681422</v>
+        <v>0.1839124229970967</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0421318621022342</v>
+        <v>0.05400881578046466</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>17</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1559600594.108163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2459987511.04677</v>
+        <v>1718547665.528862</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1561465264646379</v>
+        <v>0.1633280722253222</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02277886304748823</v>
+        <v>0.02364185794302397</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>4</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1229993846.932818</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1274993730.880435</v>
+        <v>1283196069.591418</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1308540696962467</v>
+        <v>0.1174841009950306</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03935927861630645</v>
+        <v>0.03131073425798694</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>637496940.1081882</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2351249971.099237</v>
+        <v>3450085737.251601</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1416124989699397</v>
+        <v>0.1423722663521615</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02483676244928816</v>
+        <v>0.02855401617610748</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>17</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1175624951.767313</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3161057374.446103</v>
+        <v>2389375457.79947</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1046915865158914</v>
+        <v>0.1241054927392807</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02831400500697674</v>
+        <v>0.03424958108561563</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>15</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1580528713.384691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1380160054.591891</v>
+        <v>1461900550.273006</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09217468714231247</v>
+        <v>0.1218744486433094</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04998089435205166</v>
+        <v>0.03667776356935284</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>690079983.9458047</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1819462707.378734</v>
+        <v>1385750717.971945</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1712642390204292</v>
+        <v>0.1614569014078233</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06148184027847573</v>
+        <v>0.05853613582329451</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>909731349.8676288</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2334150112.340279</v>
+        <v>2272893770.910289</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08644939728301482</v>
+        <v>0.09940129793185376</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02872591988842087</v>
+        <v>0.0360458380182405</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>12</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1167075027.442773</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3793335211.131515</v>
+        <v>4847425714.73912</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1295387233694166</v>
+        <v>0.09953457438196425</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04924568816817895</v>
+        <v>0.04521498149820231</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>13</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1896667619.378908</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1588377874.470523</v>
+        <v>1991986439.22612</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1564235805651941</v>
+        <v>0.1287453822297421</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03006240213011203</v>
+        <v>0.04084021899970442</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>794188881.8993881</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2799866613.250363</v>
+        <v>2475613521.465705</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1180926286141652</v>
+        <v>0.09351423747602208</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04718622526037421</v>
+        <v>0.04041928073445814</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>11</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1399933320.76493</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1913019772.042586</v>
+        <v>2388046541.34465</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1417513652106029</v>
+        <v>0.1138140714298019</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0371879331429356</v>
+        <v>0.04679215062292544</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>956509882.1400316</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3717526195.345695</v>
+        <v>4596076670.54041</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1495700493011702</v>
+        <v>0.1486662643726991</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01834027096886768</v>
+        <v>0.02332550446868297</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>15</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1858763131.198077</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2455575970.689175</v>
+        <v>3887487326.771011</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08935690696959248</v>
+        <v>0.09912816553101148</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02587512091781283</v>
+        <v>0.0259782629499516</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>13</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1227787932.974039</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2379816759.83008</v>
+        <v>3335532822.865551</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0984500174052762</v>
+        <v>0.09600539681775506</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0346422315131351</v>
+        <v>0.02215099011997775</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>13</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1189908320.721478</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2945986974.010371</v>
+        <v>4711841187.453773</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1417468889273726</v>
+        <v>0.1591710359303914</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02564380825650657</v>
+        <v>0.02532270604244697</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>14</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1472993473.416008</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2659367463.639503</v>
+        <v>3163235917.063457</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2204561467929757</v>
+        <v>0.1881956861735914</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04121005819724487</v>
+        <v>0.04578553090402352</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>19</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1329683775.717471</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_46.xlsx
+++ b/output/fit_clients/fit_round_46.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1650458486.148284</v>
+        <v>2475200332.047952</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08777231072075889</v>
+        <v>0.1084844456482655</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02850020916831199</v>
+        <v>0.04060694422782208</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2415406006.191741</v>
+        <v>2132618100.322244</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1206245512885676</v>
+        <v>0.1609761331185821</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04991784570805545</v>
+        <v>0.04637709052595591</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4000261632.921426</v>
+        <v>4253092965.902752</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1095633493791054</v>
+        <v>0.1537938127591423</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03679345953755504</v>
+        <v>0.03799141321899542</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4060934306.149909</v>
+        <v>4243931733.691941</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09486823526390369</v>
+        <v>0.06883611427632751</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03750801759147337</v>
+        <v>0.03512438463434114</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2817906868.597967</v>
+        <v>2095731978.84437</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1261843908563103</v>
+        <v>0.133278044500978</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05492048997202736</v>
+        <v>0.04372334763302784</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2843367479.701818</v>
+        <v>2219861494.733849</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08743862241869955</v>
+        <v>0.09757782907246652</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04543742397873144</v>
+        <v>0.02999972901607607</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3332028281.167145</v>
+        <v>3581991646.419179</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1774571111558284</v>
+        <v>0.2198893240234076</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02089918288376997</v>
+        <v>0.02478764084976264</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1570558169.767159</v>
+        <v>1687256671.533291</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1607304079322848</v>
+        <v>0.1237459974433245</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02348110328543604</v>
+        <v>0.02580847441812434</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5291237387.365417</v>
+        <v>3654699884.632541</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1422307731011682</v>
+        <v>0.1932965753269902</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03829105868711485</v>
+        <v>0.03917704924166335</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3023290869.429251</v>
+        <v>2588230705.720979</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1414765959111981</v>
+        <v>0.1710248844893501</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0404826375620523</v>
+        <v>0.03856369087087399</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2040492836.227709</v>
+        <v>2387329471.36566</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1896361140515488</v>
+        <v>0.1557433356214807</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04484484206524399</v>
+        <v>0.04839300437227282</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4234197768.367474</v>
+        <v>5194050608.846992</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1016202253567966</v>
+        <v>0.08095794475444647</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0242239307530868</v>
+        <v>0.02765636228044734</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3472663877.193401</v>
+        <v>2887023350.708578</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1454310478247609</v>
+        <v>0.1726791391652243</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04151042658706704</v>
+        <v>0.03388133794186534</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1545575609.234959</v>
+        <v>1804699090.166893</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09279836884332762</v>
+        <v>0.08177767743950164</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0350472212404507</v>
+        <v>0.03898794921212285</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2048053134.678383</v>
+        <v>2278808512.14519</v>
       </c>
       <c r="F16" t="n">
-        <v>0.11298896179934</v>
+        <v>0.09760543603461705</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04220424975640667</v>
+        <v>0.03867217812965415</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4444661287.088479</v>
+        <v>4884964012.858148</v>
       </c>
       <c r="F17" t="n">
-        <v>0.147159391872325</v>
+        <v>0.110321907967049</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04805381690742654</v>
+        <v>0.04414837154865063</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2861926739.088901</v>
+        <v>3090841657.62044</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1336067788889957</v>
+        <v>0.1214646858703876</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02660779857153274</v>
+        <v>0.02801661289408823</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1365300635.753867</v>
+        <v>1246049327.415803</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1709991324107706</v>
+        <v>0.163943324232607</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02664646878875505</v>
+        <v>0.0185537727456435</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2409387010.574069</v>
+        <v>1706822634.830706</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1367308545664036</v>
+        <v>0.1440654202372603</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02941004000844548</v>
+        <v>0.02953675741764253</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2030110910.904328</v>
+        <v>2502397823.394606</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08356525334472646</v>
+        <v>0.06710908467169109</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03518439112968638</v>
+        <v>0.03550864356019876</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3454887735.719911</v>
+        <v>2569444273.322387</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1050966247859749</v>
+        <v>0.1409945807258151</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04058525077912745</v>
+        <v>0.04845948113556014</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1173476647.194787</v>
+        <v>1069993294.612036</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1862701049347245</v>
+        <v>0.1196800725964888</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04756809973100489</v>
+        <v>0.04832018838508936</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2837249925.923692</v>
+        <v>2895988797.732037</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1005671374359168</v>
+        <v>0.1243856340581029</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03126381531383689</v>
+        <v>0.03751309081494582</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1107773466.872453</v>
+        <v>1011224654.413371</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1027611049700154</v>
+        <v>0.09608656285622007</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02124892504795271</v>
+        <v>0.02755204810355338</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1116843940.670463</v>
+        <v>1200026575.418891</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1149171026180253</v>
+        <v>0.1143601523721057</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02711422055289936</v>
+        <v>0.02539858508386076</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3801242604.657372</v>
+        <v>3876217482.666495</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1457199804115469</v>
+        <v>0.145601628478732</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02436023728630748</v>
+        <v>0.02213308806639929</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3784536802.786294</v>
+        <v>2645401367.473022</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1518991785188441</v>
+        <v>0.12339074932889</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0332726971500002</v>
+        <v>0.03696002166768528</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4481794433.716353</v>
+        <v>4107741939.219357</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1214058612768075</v>
+        <v>0.144011959135125</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03705324599594854</v>
+        <v>0.02989421889372491</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1502435224.259961</v>
+        <v>2185644555.779829</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09394037805999532</v>
+        <v>0.1148452185887601</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03151990518862249</v>
+        <v>0.02627813864675048</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1398283111.756406</v>
+        <v>1051026317.432337</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09195598454600966</v>
+        <v>0.1025517899926403</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04891629918472916</v>
+        <v>0.03946885434726303</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1596248311.015322</v>
+        <v>1349003199.080067</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08366220638157434</v>
+        <v>0.1008779658351155</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03539111656337444</v>
+        <v>0.02725306520505577</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2797336459.066349</v>
+        <v>2147577098.888363</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1283858736299189</v>
+        <v>0.1507646110907312</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05840758095412141</v>
+        <v>0.04774582325788802</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,16 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1367483113.858183</v>
+        <v>1496730686.078371</v>
       </c>
       <c r="F34" t="n">
-        <v>0.110396494896198</v>
+        <v>0.1194520807602157</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0246951637260534</v>
+        <v>0.01772565323667617</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1053644704.627214</v>
+        <v>1049946423.662663</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08989658139859187</v>
+        <v>0.09356799617069088</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03887469404624923</v>
+        <v>0.03853913909900323</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2935111285.333762</v>
+        <v>2651579539.878007</v>
       </c>
       <c r="F36" t="n">
-        <v>0.164621869584402</v>
+        <v>0.1109070135183559</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02667481501694268</v>
+        <v>0.01980116890417602</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2725846362.364575</v>
+        <v>1862089250.949782</v>
       </c>
       <c r="F37" t="n">
-        <v>0.101716704656232</v>
+        <v>0.1068538726477263</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02730425226838305</v>
+        <v>0.03273900580368892</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1453069062.659011</v>
+        <v>1525196120.921226</v>
       </c>
       <c r="F38" t="n">
-        <v>0.07566780176295412</v>
+        <v>0.08676002873917395</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03699118474015521</v>
+        <v>0.02964843943679825</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1946726692.618604</v>
+        <v>1989813114.686015</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1878708599472833</v>
+        <v>0.1740374250728191</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02329446862935123</v>
+        <v>0.02448136071429561</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,16 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1500955128.408392</v>
+        <v>1390836042.313831</v>
       </c>
       <c r="F40" t="n">
-        <v>0.129454084693876</v>
+        <v>0.1089060792682754</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05660670374701683</v>
+        <v>0.04952247296394436</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2242749189.377371</v>
+        <v>2892363060.348244</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1327505042697314</v>
+        <v>0.1174179445916047</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04237356621125807</v>
+        <v>0.04317891190468124</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3112441634.728812</v>
+        <v>4331163025.614015</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07794872274762649</v>
+        <v>0.09495216325599733</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04405377900642014</v>
+        <v>0.03263924509402158</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2994451128.037279</v>
+        <v>2458279723.843333</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1241241808350337</v>
+        <v>0.1518436567758175</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01737384727039553</v>
+        <v>0.01740425199536035</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1693693582.772172</v>
+        <v>1903600877.839482</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06770633988878696</v>
+        <v>0.0947089690878074</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03399029873589365</v>
+        <v>0.02566731025555526</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2085195889.126669</v>
+        <v>2133703756.41992</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1338003454807032</v>
+        <v>0.1908537389221235</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04666342781723532</v>
+        <v>0.03904754989571965</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5146736821.387655</v>
+        <v>4047389000.159268</v>
       </c>
       <c r="F46" t="n">
-        <v>0.114485814472667</v>
+        <v>0.147650289228248</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03701942327852143</v>
+        <v>0.04817244265256565</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4907806328.282817</v>
+        <v>4094768910.18607</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1705938501287784</v>
+        <v>0.1279283983585541</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04246107191384549</v>
+        <v>0.05347485059967695</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4437462485.482448</v>
+        <v>4607696976.72473</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08882088686368303</v>
+        <v>0.07754756144990063</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0272698163128043</v>
+        <v>0.03726150717710028</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1325377826.117058</v>
+        <v>1832061078.566318</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1590027840910641</v>
+        <v>0.1464136009185966</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03619611833043574</v>
+        <v>0.02803712047225145</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3913410125.374149</v>
+        <v>3919392379.043004</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1428809724617129</v>
+        <v>0.1335356407566319</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04217651528077226</v>
+        <v>0.05349985940582416</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1278483558.450502</v>
+        <v>1171786957.510356</v>
       </c>
       <c r="F51" t="n">
-        <v>0.127957338136802</v>
+        <v>0.1305245795061059</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04666892180103162</v>
+        <v>0.04926157176014626</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3898607489.834186</v>
+        <v>5090120811.067115</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08835926326079128</v>
+        <v>0.08681770826329727</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05252325926291788</v>
+        <v>0.04775033312987625</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3318041479.273546</v>
+        <v>2334438324.989195</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1433778109806827</v>
+        <v>0.1666691569901891</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02410172639352625</v>
+        <v>0.02422504449143023</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3293708349.430731</v>
+        <v>4661202723.429321</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1610717747175763</v>
+        <v>0.1642106716686053</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04511942639161177</v>
+        <v>0.04551633668959851</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4112670687.91714</v>
+        <v>3263807469.537785</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2073097677619509</v>
+        <v>0.1465169196736015</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02302208606857214</v>
+        <v>0.02644602411110477</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1653047322.870836</v>
+        <v>1279568445.534274</v>
       </c>
       <c r="F56" t="n">
-        <v>0.143093723202323</v>
+        <v>0.1616629371660303</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0447717871953027</v>
+        <v>0.03673122629967756</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3095814695.339176</v>
+        <v>3942400025.70973</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1149214061312503</v>
+        <v>0.1830854095731577</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01831969842026543</v>
+        <v>0.02043054527822686</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1259930753.479861</v>
+        <v>1911826692.214267</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1876618388799046</v>
+        <v>0.1554649346840085</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02446636287970705</v>
+        <v>0.03049310004471754</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4177310156.195596</v>
+        <v>4304446856.862475</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1209917942246239</v>
+        <v>0.08525467768284369</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0359731723127942</v>
+        <v>0.04011159070915149</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2875963999.624861</v>
+        <v>3401633704.92797</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1719069526824596</v>
+        <v>0.147779938684076</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02533978257924297</v>
+        <v>0.02640720484182938</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2986448808.790266</v>
+        <v>2758810213.110192</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1736006291260987</v>
+        <v>0.1215350436379958</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02679417251946411</v>
+        <v>0.02992992711023957</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1891741371.119588</v>
+        <v>2107631877.198943</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1627162840771562</v>
+        <v>0.1482295959509707</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04075432627530866</v>
+        <v>0.04128158236289067</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3906033382.36145</v>
+        <v>4058248518.896577</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07059758294215158</v>
+        <v>0.07680857650693151</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03369117869434252</v>
+        <v>0.04327556536449682</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5006232367.40847</v>
+        <v>4245201019.991055</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1381372157292167</v>
+        <v>0.1248163366941508</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03507592968186012</v>
+        <v>0.02409115838015284</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5180595756.902102</v>
+        <v>5346952038.627936</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1336518224794144</v>
+        <v>0.1393951733258348</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02287776602050022</v>
+        <v>0.02660238798825374</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4526988962.314383</v>
+        <v>3889217365.192566</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1058631202186183</v>
+        <v>0.1081704500627907</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03367895050611171</v>
+        <v>0.0415810667311629</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2304962752.085057</v>
+        <v>2693982299.297422</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07565919982170549</v>
+        <v>0.1025646973691338</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04883067092392458</v>
+        <v>0.0438339719623957</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5215105309.337927</v>
+        <v>5493190818.848242</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1481487112341285</v>
+        <v>0.11087834058785</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04818068107192834</v>
+        <v>0.04291773910772356</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1743807790.347089</v>
+        <v>2344122863.247984</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1793107217132207</v>
+        <v>0.1397965461909121</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04568215726101225</v>
+        <v>0.03719299874272169</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2743255030.956526</v>
+        <v>3604181737.499671</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0768028644702914</v>
+        <v>0.06238560715250207</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04460995904878731</v>
+        <v>0.0348751411555349</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5128111303.043007</v>
+        <v>4713383451.919367</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1629331356856147</v>
+        <v>0.1817582434157073</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02234291359959092</v>
+        <v>0.02088750339614066</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1680832383.479461</v>
+        <v>1505466281.557682</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08368557549012125</v>
+        <v>0.09558021117624023</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03619513732286825</v>
+        <v>0.04608083361403914</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2645108356.481082</v>
+        <v>2170693287.186113</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07401132270196029</v>
+        <v>0.07354197580701287</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03500714020620869</v>
+        <v>0.03922392577546951</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2995214962.658865</v>
+        <v>3157212192.623417</v>
       </c>
       <c r="F74" t="n">
-        <v>0.139623282941139</v>
+        <v>0.1112872734004026</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03116612935034722</v>
+        <v>0.02733788474722044</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1710486232.905159</v>
+        <v>2111859099.84364</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1553523215069043</v>
+        <v>0.1528706931159132</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03056983446426304</v>
+        <v>0.03544765241905424</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5252203008.266889</v>
+        <v>3394903463.473105</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08271561074272196</v>
+        <v>0.09300228718455378</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0321729993903417</v>
+        <v>0.0296438747360067</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1936329311.33157</v>
+        <v>2053786924.853032</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1757334096159293</v>
+        <v>0.1671395026678126</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03007849305883622</v>
+        <v>0.01957863836341944</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4778050690.027702</v>
+        <v>3138766132.037467</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1295585304101037</v>
+        <v>0.1157978719969748</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05192860215316863</v>
+        <v>0.05485289137980195</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1452430308.980211</v>
+        <v>1828172314.065004</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1114788526350974</v>
+        <v>0.129771446890693</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03624721775380632</v>
+        <v>0.02829793491615786</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3911937044.730097</v>
+        <v>4143309423.530305</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09798250292010327</v>
+        <v>0.1065030181168919</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03685877863719329</v>
+        <v>0.03556373625391003</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3526750954.485748</v>
+        <v>4657861767.595476</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0852083597904871</v>
+        <v>0.1027560383113448</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02761479562606884</v>
+        <v>0.02432158305620676</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4496945323.292339</v>
+        <v>5698054938.1052</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2019672140507933</v>
+        <v>0.1845584557599131</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02018613927178771</v>
+        <v>0.01971543565135102</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1683197975.977786</v>
+        <v>1940930006.344363</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1336161000825511</v>
+        <v>0.1478852469966325</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03380315424617501</v>
+        <v>0.03038612709417002</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2494557694.982837</v>
+        <v>1950680296.220038</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1145660182100533</v>
+        <v>0.08654688651429114</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03408645962843993</v>
+        <v>0.03526689131214857</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3277162171.209718</v>
+        <v>3298070665.938655</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1839124229970967</v>
+        <v>0.1789229691444703</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05400881578046466</v>
+        <v>0.05208073529172994</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1718547665.528862</v>
+        <v>1865232736.557753</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1633280722253222</v>
+        <v>0.123966625827695</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02364185794302397</v>
+        <v>0.02405860873845018</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1283196069.591418</v>
+        <v>1118595851.340413</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1174841009950306</v>
+        <v>0.1901699780092981</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03131073425798694</v>
+        <v>0.04114475865228762</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3450085737.251601</v>
+        <v>3585740466.161016</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1423722663521615</v>
+        <v>0.165895036332941</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02855401617610748</v>
+        <v>0.03342596058198467</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2389375457.79947</v>
+        <v>2472470174.994025</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1241054927392807</v>
+        <v>0.1339638010002163</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03424958108561563</v>
+        <v>0.02688088577525667</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1461900550.273006</v>
+        <v>1842108963.200711</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1218744486433094</v>
+        <v>0.134843058756715</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03667776356935284</v>
+        <v>0.0414499329723723</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1385750717.971945</v>
+        <v>1992025271.757623</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1614569014078233</v>
+        <v>0.1179856819967698</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05853613582329451</v>
+        <v>0.05507724614431374</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2272893770.910289</v>
+        <v>2954367220.58554</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09940129793185376</v>
+        <v>0.08193827867198442</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0360458380182405</v>
+        <v>0.03326141894095873</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4847425714.73912</v>
+        <v>4871365812.264236</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09953457438196425</v>
+        <v>0.121824494068761</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04521498149820231</v>
+        <v>0.03982934771710157</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1991986439.22612</v>
+        <v>2061001146.162489</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1287453822297421</v>
+        <v>0.1060083350797901</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04084021899970442</v>
+        <v>0.02827225331626642</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2475613521.465705</v>
+        <v>2341042989.179536</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09351423747602208</v>
+        <v>0.1349966430010909</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04041928073445814</v>
+        <v>0.04180957232358342</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2388046541.34465</v>
+        <v>2290663999.804237</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1138140714298019</v>
+        <v>0.1151424688627587</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04679215062292544</v>
+        <v>0.0397564011093784</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4596076670.54041</v>
+        <v>5340319310.623627</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1486662643726991</v>
+        <v>0.1610301200871223</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02332550446868297</v>
+        <v>0.01806446631412947</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3887487326.771011</v>
+        <v>3852127071.340963</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09912816553101148</v>
+        <v>0.1193879203062166</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0259782629499516</v>
+        <v>0.02721415815797626</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3335532822.865551</v>
+        <v>2100337528.465512</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09600539681775506</v>
+        <v>0.128148554733641</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02215099011997775</v>
+        <v>0.02967602234804018</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4711841187.453773</v>
+        <v>4615681841.708789</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1591710359303914</v>
+        <v>0.1286114763867028</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02532270604244697</v>
+        <v>0.02749840013872802</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3163235917.063457</v>
+        <v>3134174251.30661</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1881956861735914</v>
+        <v>0.1356580744629197</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04578553090402352</v>
+        <v>0.03752663952786704</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_46.xlsx
+++ b/output/fit_clients/fit_round_46.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2475200332.047952</v>
+        <v>1819261303.3331</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1084844456482655</v>
+        <v>0.07229048467744041</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04060694422782208</v>
+        <v>0.03348177592490426</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2132618100.322244</v>
+        <v>2224446782.291798</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1609761331185821</v>
+        <v>0.1578767157770474</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04637709052595591</v>
+        <v>0.03773272144526274</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4253092965.902752</v>
+        <v>3186160819.768678</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1537938127591423</v>
+        <v>0.1612738491790819</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03799141321899542</v>
+        <v>0.03539407265202234</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>34</v>
+      </c>
+      <c r="J4" t="n">
+        <v>45</v>
+      </c>
+      <c r="K4" t="n">
+        <v>113.312215977956</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4243931733.691941</v>
+        <v>3048687319.88923</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06883611427632751</v>
+        <v>0.08871600119393246</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03512438463434114</v>
+        <v>0.03655913881904379</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>21</v>
+      </c>
+      <c r="J5" t="n">
+        <v>45</v>
+      </c>
+      <c r="K5" t="n">
+        <v>108.0720965413175</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2095731978.84437</v>
+        <v>1926686228.586656</v>
       </c>
       <c r="F6" t="n">
-        <v>0.133278044500978</v>
+        <v>0.1316887705953964</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04372334763302784</v>
+        <v>0.05174755895467199</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +680,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2219861494.733849</v>
+        <v>3112020566.991732</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09757782907246652</v>
+        <v>0.08173142825779325</v>
       </c>
       <c r="G7" t="n">
-        <v>0.02999972901607607</v>
+        <v>0.03647936842733904</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +709,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3581991646.419179</v>
+        <v>2718107158.684541</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2198893240234076</v>
+        <v>0.1748210259614595</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02478764084976264</v>
+        <v>0.02414625691387123</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>11</v>
+      </c>
+      <c r="J8" t="n">
+        <v>45</v>
+      </c>
+      <c r="K8" t="n">
+        <v>77.27004299272369</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +746,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1687256671.533291</v>
+        <v>1769103419.997587</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1237459974433245</v>
+        <v>0.1545533705717842</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02580847441812434</v>
+        <v>0.02254606567760911</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +781,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3654699884.632541</v>
+        <v>5768629626.688978</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1932965753269902</v>
+        <v>0.1849176237546853</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03917704924166335</v>
+        <v>0.04877279044296819</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>42</v>
+      </c>
+      <c r="J10" t="n">
+        <v>46</v>
+      </c>
+      <c r="K10" t="n">
+        <v>234.8371977456609</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +818,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2588230705.720979</v>
+        <v>3879008820.880867</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1710248844893501</v>
+        <v>0.1901034780160056</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03856369087087399</v>
+        <v>0.04294073338640209</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>20</v>
+      </c>
+      <c r="J11" t="n">
+        <v>46</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +859,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2387329471.36566</v>
+        <v>3071332750.882079</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1557433356214807</v>
+        <v>0.1456802735490594</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04839300437227282</v>
+        <v>0.04919236600646917</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,17 +894,24 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5194050608.846992</v>
+        <v>4469588397.260793</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08095794475444647</v>
+        <v>0.0783458380851399</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02765636228044734</v>
+        <v>0.01982985333205867</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>23</v>
+      </c>
+      <c r="J13" t="n">
+        <v>46</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2887023350.708578</v>
+        <v>3287807332.813343</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1726791391652243</v>
+        <v>0.1721151098932611</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03388133794186534</v>
+        <v>0.03107584615958395</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>7</v>
+      </c>
+      <c r="J14" t="n">
+        <v>36</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +964,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1804699090.166893</v>
+        <v>1646155951.434067</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08177767743950164</v>
+        <v>0.07889383682316572</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03898794921212285</v>
+        <v>0.02978872044024996</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2278808512.14519</v>
+        <v>1780255544.624359</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09760543603461705</v>
+        <v>0.08981512627525044</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03867217812965415</v>
+        <v>0.04539546992723341</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1034,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4884964012.858148</v>
+        <v>4349840420.618515</v>
       </c>
       <c r="F17" t="n">
-        <v>0.110321907967049</v>
+        <v>0.1410717952760959</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04414837154865063</v>
+        <v>0.03554755237802062</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>22</v>
+      </c>
+      <c r="J17" t="n">
+        <v>45</v>
+      </c>
+      <c r="K17" t="n">
+        <v>193.0962394963759</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3090841657.62044</v>
+        <v>3944201012.848559</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1214646858703876</v>
+        <v>0.1624737945372215</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02801661289408823</v>
+        <v>0.02548395791088194</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>10</v>
+      </c>
+      <c r="J18" t="n">
+        <v>46</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -962,17 +1106,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1246049327.415803</v>
+        <v>1033418675.81814</v>
       </c>
       <c r="F19" t="n">
-        <v>0.163943324232607</v>
+        <v>0.1671168604147517</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0185537727456435</v>
+        <v>0.02279701970294789</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1141,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1706822634.830706</v>
+        <v>2579264528.506967</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1440654202372603</v>
+        <v>0.133493490936608</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02953675741764253</v>
+        <v>0.02895496311094215</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2502397823.394606</v>
+        <v>1750704558.098623</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06710908467169109</v>
+        <v>0.08220763653819495</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03550864356019876</v>
+        <v>0.0284572448311836</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2569444273.322387</v>
+        <v>3701659202.201827</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1409945807258151</v>
+        <v>0.09687497292101843</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04845948113556014</v>
+        <v>0.05019660935207776</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>13</v>
+      </c>
+      <c r="J22" t="n">
+        <v>46</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1069993294.612036</v>
+        <v>974521157.3746864</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1196800725964888</v>
+        <v>0.1857002261752604</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04832018838508936</v>
+        <v>0.05077051408270692</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2895988797.732037</v>
+        <v>3744903065.526726</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1243856340581029</v>
+        <v>0.1086442451129852</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03751309081494582</v>
+        <v>0.03670219075726014</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>12</v>
+      </c>
+      <c r="J24" t="n">
+        <v>46</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1316,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1011224654.413371</v>
+        <v>1035730109.160374</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09608656285622007</v>
+        <v>0.08215816881706411</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02755204810355338</v>
+        <v>0.02277772426125738</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1200026575.418891</v>
+        <v>1444382496.877668</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1143601523721057</v>
+        <v>0.1040930725238661</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02539858508386076</v>
+        <v>0.02661584881859422</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3876217482.666495</v>
+        <v>3615519806.69486</v>
       </c>
       <c r="F27" t="n">
-        <v>0.145601628478732</v>
+        <v>0.1481134873716957</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02213308806639929</v>
+        <v>0.02322965200495</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>18</v>
+      </c>
+      <c r="J27" t="n">
+        <v>44</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1214,16 +1421,25 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2645401367.473022</v>
+        <v>3132306819.854313</v>
       </c>
       <c r="F28" t="n">
-        <v>0.12339074932889</v>
+        <v>0.1018261118871981</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03696002166768528</v>
+        <v>0.03172244538312433</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>13</v>
+      </c>
+      <c r="J28" t="n">
+        <v>45</v>
+      </c>
+      <c r="K28" t="n">
+        <v>106.8647696938855</v>
       </c>
     </row>
     <row r="29">
@@ -1242,16 +1458,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4107741939.219357</v>
+        <v>5091539377.002398</v>
       </c>
       <c r="F29" t="n">
-        <v>0.144011959135125</v>
+        <v>0.1498253334980217</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02989421889372491</v>
+        <v>0.03166251119959104</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>41</v>
+      </c>
+      <c r="J29" t="n">
+        <v>46</v>
+      </c>
+      <c r="K29" t="n">
+        <v>239.7249049289474</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2185644555.779829</v>
+        <v>1977277091.360677</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1148452185887601</v>
+        <v>0.124232398777446</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02627813864675048</v>
+        <v>0.03615923209551292</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1051026317.432337</v>
+        <v>1288080529.345645</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1025517899926403</v>
+        <v>0.1060663168319</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03946885434726303</v>
+        <v>0.0346092979781065</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1349003199.080067</v>
+        <v>1796489391.072948</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1008779658351155</v>
+        <v>0.09197487513123263</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02725306520505577</v>
+        <v>0.02623337445395322</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2147577098.888363</v>
+        <v>1903830524.988029</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1507646110907312</v>
+        <v>0.1322404687883956</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04774582325788802</v>
+        <v>0.03911414753437752</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1496730686.078371</v>
+        <v>1155668675.720891</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1194520807602157</v>
+        <v>0.08551547745526837</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01772565323667617</v>
+        <v>0.02146624537563376</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1049946423.662663</v>
+        <v>1048379632.512097</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09356799617069088</v>
+        <v>0.08610379961660683</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03853913909900323</v>
+        <v>0.04502982849238806</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2651579539.878007</v>
+        <v>2550150653.78776</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1109070135183559</v>
+        <v>0.1692224710941853</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01980116890417602</v>
+        <v>0.02496371658098746</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1740,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1862089250.949782</v>
+        <v>2362254936.351176</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1068538726477263</v>
+        <v>0.06964446972026307</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03273900580368892</v>
+        <v>0.03307683185887875</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1525196120.921226</v>
+        <v>1969331426.605793</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08676002873917395</v>
+        <v>0.1045847750177088</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02964843943679825</v>
+        <v>0.03987853692885469</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1989813114.686015</v>
+        <v>1741027871.65312</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1740374250728191</v>
+        <v>0.1780573564877787</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02448136071429561</v>
+        <v>0.02183550475818933</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1390836042.313831</v>
+        <v>1314463582.868648</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1089060792682754</v>
+        <v>0.1433352556846637</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04952247296394436</v>
+        <v>0.03864837703366382</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2892363060.348244</v>
+        <v>2206543983.825068</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1174179445916047</v>
+        <v>0.1444874111291156</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04317891190468124</v>
+        <v>0.034923020094516</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1915,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4331163025.614015</v>
+        <v>3527805055.02401</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09495216325599733</v>
+        <v>0.1240876860948029</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03263924509402158</v>
+        <v>0.03731775481994697</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>16</v>
+      </c>
+      <c r="J42" t="n">
+        <v>44</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1950,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2458279723.843333</v>
+        <v>2714376703.516071</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1518436567758175</v>
+        <v>0.2027388712765599</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01740425199536035</v>
+        <v>0.02159857736448533</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1985,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1903600877.839482</v>
+        <v>2186489813.327443</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0947089690878074</v>
+        <v>0.08868526528135176</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02566731025555526</v>
+        <v>0.02733259535460879</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2133703756.41992</v>
+        <v>2495611095.832363</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1908537389221235</v>
+        <v>0.1481945546732826</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03904754989571965</v>
+        <v>0.04085356649736444</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2055,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4047389000.159268</v>
+        <v>5144753888.212269</v>
       </c>
       <c r="F46" t="n">
-        <v>0.147650289228248</v>
+        <v>0.1591725037298345</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04817244265256565</v>
+        <v>0.0457856991867993</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>28</v>
+      </c>
+      <c r="J46" t="n">
+        <v>46</v>
+      </c>
+      <c r="K46" t="n">
+        <v>209.5899698307722</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2086,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4094768910.18607</v>
+        <v>3950307612.951059</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1279283983585541</v>
+        <v>0.1769273590189902</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05347485059967695</v>
+        <v>0.04941469174154899</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>19</v>
+      </c>
+      <c r="J47" t="n">
+        <v>46</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2121,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4607696976.72473</v>
+        <v>3391306278.508731</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07754756144990063</v>
+        <v>0.1001305310607222</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03726150717710028</v>
+        <v>0.02673629953181952</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>15</v>
+      </c>
+      <c r="J48" t="n">
+        <v>44</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1832061078.566318</v>
+        <v>1795903116.464549</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1464136009185966</v>
+        <v>0.127096392216094</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02803712047225145</v>
+        <v>0.043585996026586</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3919392379.043004</v>
+        <v>4201587482.112886</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1335356407566319</v>
+        <v>0.1154435817722681</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05349985940582416</v>
+        <v>0.05227438580017973</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>16</v>
+      </c>
+      <c r="J50" t="n">
+        <v>46</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1171786957.510356</v>
+        <v>1241310526.144935</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1305245795061059</v>
+        <v>0.1665920640640999</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04926157176014626</v>
+        <v>0.03686340768185309</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2267,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5090120811.067115</v>
+        <v>3875701824.468317</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08681770826329727</v>
+        <v>0.1041303722436511</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04775033312987625</v>
+        <v>0.05006213090934721</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>35</v>
+      </c>
+      <c r="J52" t="n">
+        <v>46</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2334438324.989195</v>
+        <v>3178453423.088431</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1666691569901891</v>
+        <v>0.1896313001326779</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02422504449143023</v>
+        <v>0.03498268871176485</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>6</v>
+      </c>
+      <c r="J53" t="n">
+        <v>36</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2337,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4661202723.429321</v>
+        <v>3238925855.069138</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1642106716686053</v>
+        <v>0.1491487528976278</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04551633668959851</v>
+        <v>0.03358477171851536</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>20</v>
+      </c>
+      <c r="J54" t="n">
+        <v>45</v>
+      </c>
+      <c r="K54" t="n">
+        <v>113.6753477330971</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3263807469.537785</v>
+        <v>4357626941.346381</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1465169196736015</v>
+        <v>0.1443156880785346</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02644602411110477</v>
+        <v>0.02339355766063586</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>22</v>
+      </c>
+      <c r="J55" t="n">
+        <v>45</v>
+      </c>
+      <c r="K55" t="n">
+        <v>181.5076092568028</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1279568445.534274</v>
+        <v>1208304103.319958</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1616629371660303</v>
+        <v>0.145099800436372</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03673122629967756</v>
+        <v>0.03907365284754227</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3942400025.70973</v>
+        <v>3004926050.288045</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1830854095731577</v>
+        <v>0.1148113202079219</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02043054527822686</v>
+        <v>0.01798021951780053</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>17</v>
+      </c>
+      <c r="J57" t="n">
+        <v>45</v>
+      </c>
+      <c r="K57" t="n">
+        <v>93.42973202500752</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1911826692.214267</v>
+        <v>1814004061.448001</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1554649346840085</v>
+        <v>0.1942987883672533</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03049310004471754</v>
+        <v>0.02792348308076073</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2512,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4304446856.862475</v>
+        <v>4834245775.539185</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08525467768284369</v>
+        <v>0.09699107685963253</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04011159070915149</v>
+        <v>0.03131988058969747</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>22</v>
+      </c>
+      <c r="J59" t="n">
+        <v>45</v>
+      </c>
+      <c r="K59" t="n">
+        <v>183.5274325312936</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2555,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3401633704.92797</v>
+        <v>2300087437.357796</v>
       </c>
       <c r="F60" t="n">
-        <v>0.147779938684076</v>
+        <v>0.1863284349538362</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02640720484182938</v>
+        <v>0.02314862252283767</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>5</v>
+      </c>
+      <c r="J60" t="n">
+        <v>30</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2758810213.110192</v>
+        <v>3369792279.023367</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1215350436379958</v>
+        <v>0.1233987911678054</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02992992711023957</v>
+        <v>0.03125525515217507</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2107631877.198943</v>
+        <v>1646251311.910561</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1482295959509707</v>
+        <v>0.1434083387218261</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04128158236289067</v>
+        <v>0.0348306444861208</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2660,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4058248518.896577</v>
+        <v>5402340188.431249</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07680857650693151</v>
+        <v>0.1025901244070308</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04327556536449682</v>
+        <v>0.04647799359405788</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>22</v>
+      </c>
+      <c r="J63" t="n">
+        <v>46</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2689,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4245201019.991055</v>
+        <v>4301900507.511067</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1248163366941508</v>
+        <v>0.1807576702963063</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02409115838015284</v>
+        <v>0.02248666409433717</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>23</v>
+      </c>
+      <c r="J64" t="n">
+        <v>45</v>
+      </c>
+      <c r="K64" t="n">
+        <v>192.2773551625465</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5346952038.627936</v>
+        <v>5703469947.832473</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1393951733258348</v>
+        <v>0.1144781033989402</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02660238798825374</v>
+        <v>0.02413606202037708</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>38</v>
+      </c>
+      <c r="J65" t="n">
+        <v>46</v>
+      </c>
+      <c r="K65" t="n">
+        <v>211.0832257715267</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2769,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3889217365.192566</v>
+        <v>5671464396.751842</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1081704500627907</v>
+        <v>0.1218980976592755</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0415810667311629</v>
+        <v>0.04757396715965957</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>23</v>
+      </c>
+      <c r="J66" t="n">
+        <v>45</v>
+      </c>
+      <c r="K66" t="n">
+        <v>192.9601495813645</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2693982299.297422</v>
+        <v>3454094383.895525</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1025646973691338</v>
+        <v>0.06243016873061896</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0438339719623957</v>
+        <v>0.04711489558481873</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2835,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5493190818.848242</v>
+        <v>4611635436.313474</v>
       </c>
       <c r="F68" t="n">
-        <v>0.11087834058785</v>
+        <v>0.1414983040555561</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04291773910772356</v>
+        <v>0.04297465492783441</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>23</v>
+      </c>
+      <c r="J68" t="n">
+        <v>45</v>
+      </c>
+      <c r="K68" t="n">
+        <v>199.4279911248529</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2872,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2344122863.247984</v>
+        <v>1785476893.352306</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1397965461909121</v>
+        <v>0.1629040703795492</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03719299874272169</v>
+        <v>0.04872906592090633</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2907,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3604181737.499671</v>
+        <v>3616670609.905685</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06238560715250207</v>
+        <v>0.08557282299694112</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0348751411555349</v>
+        <v>0.03465464326436229</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>4</v>
+      </c>
+      <c r="J70" t="n">
+        <v>46</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2942,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4713383451.919367</v>
+        <v>4777262806.814981</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1817582434157073</v>
+        <v>0.1791157640502693</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02088750339614066</v>
+        <v>0.03232842576660912</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>37</v>
+      </c>
+      <c r="J71" t="n">
+        <v>46</v>
+      </c>
+      <c r="K71" t="n">
+        <v>212.409419014914</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2985,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1505466281.557682</v>
+        <v>1665213735.880915</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09558021117624023</v>
+        <v>0.09072207359986385</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04608083361403914</v>
+        <v>0.03453492365461304</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3014,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2170693287.186113</v>
+        <v>3168930714.897577</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07354197580701287</v>
+        <v>0.06950341500309483</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03922392577546951</v>
+        <v>0.03314691401728298</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>3</v>
+      </c>
+      <c r="J73" t="n">
+        <v>42</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3049,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3157212192.623417</v>
+        <v>3606987816.196433</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1112872734004026</v>
+        <v>0.1461104507849264</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02733788474722044</v>
+        <v>0.03025809559832237</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>13</v>
+      </c>
+      <c r="J74" t="n">
+        <v>44</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2111859099.84364</v>
+        <v>1899173799.196984</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1528706931159132</v>
+        <v>0.148125384130263</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03544765241905424</v>
+        <v>0.02496204402342628</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3119,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3394903463.473105</v>
+        <v>4698483808.369746</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09300228718455378</v>
+        <v>0.09605433633364219</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0296438747360067</v>
+        <v>0.02251311647601497</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>22</v>
+      </c>
+      <c r="J76" t="n">
+        <v>45</v>
+      </c>
+      <c r="K76" t="n">
+        <v>168.95621575838</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3156,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2053786924.853032</v>
+        <v>1908816270.112832</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1671395026678126</v>
+        <v>0.1217551127886477</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01957863836341944</v>
+        <v>0.02228227608794212</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3197,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3138766132.037467</v>
+        <v>4611432874.647278</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1157978719969748</v>
+        <v>0.1134963224147579</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05485289137980195</v>
+        <v>0.04174177058612013</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>19</v>
+      </c>
+      <c r="J78" t="n">
+        <v>46</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3226,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1828172314.065004</v>
+        <v>1412910527.685623</v>
       </c>
       <c r="F79" t="n">
-        <v>0.129771446890693</v>
+        <v>0.1369623993613705</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02829793491615786</v>
+        <v>0.03358513627462473</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3261,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4143309423.530305</v>
+        <v>5510730631.500463</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1065030181168919</v>
+        <v>0.09937613730029642</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03556373625391003</v>
+        <v>0.02974752865413005</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>22</v>
+      </c>
+      <c r="J80" t="n">
+        <v>45</v>
+      </c>
+      <c r="K80" t="n">
+        <v>165.9457325474467</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3298,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4657861767.595476</v>
+        <v>4191359086.225618</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1027560383113448</v>
+        <v>0.1255258132228154</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02432158305620676</v>
+        <v>0.02403350547164613</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>20</v>
+      </c>
+      <c r="J81" t="n">
+        <v>46</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3333,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5698054938.1052</v>
+        <v>4258230184.357797</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1845584557599131</v>
+        <v>0.1814735504707129</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01971543565135102</v>
+        <v>0.01810351224413173</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>27</v>
+      </c>
+      <c r="J82" t="n">
+        <v>45</v>
+      </c>
+      <c r="K82" t="n">
+        <v>202.2732632906537</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3370,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1940930006.344363</v>
+        <v>2368521141.320194</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1478852469966325</v>
+        <v>0.1142476243788164</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03038612709417002</v>
+        <v>0.03231321719035388</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3411,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1950680296.220038</v>
+        <v>2382404815.22497</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08654688651429114</v>
+        <v>0.1050824803054928</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03526689131214857</v>
+        <v>0.03615094820397249</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3440,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3298070665.938655</v>
+        <v>2273917413.716856</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1789229691444703</v>
+        <v>0.1822824530442293</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05208073529172994</v>
+        <v>0.04176613838518733</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>8</v>
+      </c>
+      <c r="J85" t="n">
+        <v>43</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3475,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1865232736.557753</v>
+        <v>2255692387.518018</v>
       </c>
       <c r="F86" t="n">
-        <v>0.123966625827695</v>
+        <v>0.167475123773509</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02405860873845018</v>
+        <v>0.02208892088654814</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3510,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1118595851.340413</v>
+        <v>1068922269.232521</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1901699780092981</v>
+        <v>0.1507621155402099</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04114475865228762</v>
+        <v>0.03044768069736071</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3551,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3585740466.161016</v>
+        <v>3626375217.832863</v>
       </c>
       <c r="F88" t="n">
-        <v>0.165895036332941</v>
+        <v>0.1756869459816268</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03342596058198467</v>
+        <v>0.03149001148499191</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>6</v>
+      </c>
+      <c r="J88" t="n">
+        <v>46</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3580,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2472470174.994025</v>
+        <v>3149426168.055415</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1339638010002163</v>
+        <v>0.09633947742168739</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02688088577525667</v>
+        <v>0.03060336215296264</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>5</v>
+      </c>
+      <c r="J89" t="n">
+        <v>40</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3615,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1842108963.200711</v>
+        <v>1545976920.838506</v>
       </c>
       <c r="F90" t="n">
-        <v>0.134843058756715</v>
+        <v>0.08488905381054629</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0414499329723723</v>
+        <v>0.0516693175861932</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3656,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1992025271.757623</v>
+        <v>1888687651.646131</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1179856819967698</v>
+        <v>0.1960757075192608</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05507724614431374</v>
+        <v>0.04093658904942709</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3685,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2954367220.58554</v>
+        <v>2109502695.08711</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08193827867198442</v>
+        <v>0.09103816278607056</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03326141894095873</v>
+        <v>0.03291542827512479</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3720,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4871365812.264236</v>
+        <v>4659015897.20391</v>
       </c>
       <c r="F93" t="n">
-        <v>0.121824494068761</v>
+        <v>0.09058881088464651</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03982934771710157</v>
+        <v>0.0378533959057546</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>20</v>
+      </c>
+      <c r="J93" t="n">
+        <v>46</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3761,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2061001146.162489</v>
+        <v>2076093070.438452</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1060083350797901</v>
+        <v>0.145623812860568</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02827225331626642</v>
+        <v>0.03679410543220488</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2341042989.179536</v>
+        <v>2733721571.157449</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1349966430010909</v>
+        <v>0.1271963093803617</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04180957232358342</v>
+        <v>0.04872575281911661</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3831,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2290663999.804237</v>
+        <v>2101745898.538895</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1151424688627587</v>
+        <v>0.140269972118339</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0397564011093784</v>
+        <v>0.03983485777126248</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3860,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5340319310.623627</v>
+        <v>4459154641.374005</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1610301200871223</v>
+        <v>0.1545606917649955</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01806446631412947</v>
+        <v>0.02695604992251351</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>22</v>
+      </c>
+      <c r="J97" t="n">
+        <v>46</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3852127071.340963</v>
+        <v>3212455352.164823</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1193879203062166</v>
+        <v>0.1253436011779079</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02721415815797626</v>
+        <v>0.02311359826616359</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>11</v>
+      </c>
+      <c r="J98" t="n">
+        <v>42</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2100337528.465512</v>
+        <v>2351886035.716937</v>
       </c>
       <c r="F99" t="n">
-        <v>0.128148554733641</v>
+        <v>0.1196704515545648</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02967602234804018</v>
+        <v>0.02597298965809029</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4615681841.708789</v>
+        <v>3336303726.718246</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1286114763867028</v>
+        <v>0.1784663336524958</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02749840013872802</v>
+        <v>0.02509980316575318</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>20</v>
+      </c>
+      <c r="J100" t="n">
+        <v>42</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3134174251.30661</v>
+        <v>3214219048.778179</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1356580744629197</v>
+        <v>0.1397091641412128</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03752663952786704</v>
+        <v>0.03722728235060719</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>2</v>
+      </c>
+      <c r="J101" t="n">
+        <v>35</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
